--- a/GestStratEntr-J5_Investissements-v2.xlsx
+++ b/GestStratEntr-J5_Investissements-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitraillet\Documents\COURS\HEIG-VD\HEIG-S5\GET\GET_Projet_Bonbons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB9BFDB-B551-4287-8B38-7A0D5CAE5957}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E45B24-D2FD-4F03-AE8C-4B57A7CDA5C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7116,7 +7116,7 @@
     <numFmt numFmtId="177" formatCode="_ &quot;fr. &quot;* #,##0.00_ ;_ &quot;fr. &quot;* \-#,##0.00_ ;_ &quot;fr. &quot;* \-??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ [$CHF]\ * #,##0_ ;[Red]_ [$CHF]\ * \(#,##0\)_ ;_ [$CHF]\ * \-_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0&quot; Sachets&quot;_-;\-* #,##0&quot; Sachets&quot;_-;_-* \-??&quot; Sachets&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0&quot; Sachets&quot;_-;\-* #,##0&quot; Sachets&quot;_-;_-* \-??&quot; Sachets&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -8353,6 +8353,7 @@
     <xf numFmtId="170" fontId="0" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8365,6 +8366,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8374,16 +8381,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
@@ -8784,184 +8784,184 @@
                 <c:formatCode>_-* #\ ##0" CHF"_-;\-* #\ ##0" CHF"_-;_-* \-??" CHF"_-;_-@_-</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-3038.3587999999991</c:v>
+                  <c:v>-3134.7411437499991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4456.7175999999981</c:v>
+                  <c:v>-4617.6072874999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4255.0763999999972</c:v>
+                  <c:v>-4489.8484312499986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4053.4351999999963</c:v>
+                  <c:v>-4362.0895749999981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3851.7939999999953</c:v>
+                  <c:v>-4234.3307187499977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3650.1527999999944</c:v>
+                  <c:v>-4106.5718624999972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-208.51159999999359</c:v>
+                  <c:v>-757.56300624999642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3233.1296000000075</c:v>
+                  <c:v>2591.4458500000046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6674.7708000000084</c:v>
+                  <c:v>5940.4547062500051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10116.412000000009</c:v>
+                  <c:v>9289.4635625000064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13558.053200000009</c:v>
+                  <c:v>12638.472418750007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16999.694400000011</c:v>
+                  <c:v>15987.481275000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13759.022550000012</c:v>
+                  <c:v>12743.315258333341</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16965.850700000014</c:v>
+                  <c:v>15941.649241666675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20172.678850000015</c:v>
+                  <c:v>19139.983225000011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23379.507000000016</c:v>
+                  <c:v>22338.317208333345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26536.335150000017</c:v>
+                  <c:v>25486.651191666682</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29693.163300000018</c:v>
+                  <c:v>28634.98517500002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36073.741450000023</c:v>
+                  <c:v>35004.569158333354</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42454.319600000024</c:v>
+                  <c:v>41374.153141666684</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48834.897750000026</c:v>
+                  <c:v>47743.737125000014</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55215.475900000027</c:v>
+                  <c:v>54113.321108333344</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61546.054050000028</c:v>
+                  <c:v>60432.905091666675</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67876.632200000036</c:v>
+                  <c:v>66752.489075000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76083.682756250026</c:v>
+                  <c:v>74933.719318749994</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86986.228589583363</c:v>
+                  <c:v>85805.015152083331</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97888.7744229167</c:v>
+                  <c:v>96676.310985416669</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>108791.32025625004</c:v>
+                  <c:v>107547.60681875001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>119693.86608958337</c:v>
+                  <c:v>118418.90265208334</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>130596.41192291671</c:v>
+                  <c:v>129290.19848541668</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>161547.39525625005</c:v>
+                  <c:v>160194.30681875002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>190168.37858958339</c:v>
+                  <c:v>188768.41515208335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>218789.36192291672</c:v>
+                  <c:v>217342.52348541669</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>247410.34525625006</c:v>
+                  <c:v>245916.63181875003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>276031.3285895834</c:v>
+                  <c:v>274490.74015208334</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>304652.31192291674</c:v>
+                  <c:v>303064.84848541667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>329799.00455260422</c:v>
+                  <c:v>328153.44541197916</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>354945.69718229171</c:v>
+                  <c:v>353242.04233854165</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>380092.3898119792</c:v>
+                  <c:v>378330.63926510414</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>405239.08244166669</c:v>
+                  <c:v>403419.23619166663</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>430385.77507135418</c:v>
+                  <c:v>428507.83311822911</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>455532.46770104166</c:v>
+                  <c:v>453596.4300447916</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>526013.14470572921</c:v>
+                  <c:v>523983.85509635409</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>596493.8217104167</c:v>
+                  <c:v>594371.28014791664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>666924.49871510419</c:v>
+                  <c:v>664708.70519947913</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>737355.17571979167</c:v>
+                  <c:v>735046.13025104161</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>807785.85272447916</c:v>
+                  <c:v>805383.5553026041</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>878216.52972916665</c:v>
+                  <c:v>875720.98035416659</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>961901.54126679688</c:v>
+                  <c:v>959275.27655976557</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1045586.5528044271</c:v>
+                  <c:v>1042829.5727653644</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1129221.5643420573</c:v>
+                  <c:v>1126333.8689709634</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1212856.5758796877</c:v>
+                  <c:v>1209838.1651765625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1296491.587417318</c:v>
+                  <c:v>1293342.4613821616</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1380126.5989549484</c:v>
+                  <c:v>1376846.7575877607</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1565763.0753363287</c:v>
+                  <c:v>1562273.4170746098</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1751349.5517177091</c:v>
+                  <c:v>1747650.0765614589</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1936936.0280990894</c:v>
+                  <c:v>1933026.736048308</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2122522.5044804695</c:v>
+                  <c:v>2118403.3955351571</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2308108.9808618496</c:v>
+                  <c:v>2303780.0550220059</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2493695.4572432297</c:v>
+                  <c:v>2489156.7145088548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9314,184 +9314,184 @@
                 <c:formatCode>_-* #\ ##0" CHF"_-;\-* #\ ##0" CHF"_-;_-* \-??" CHF"_-;_-@_-</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>6425.7999999999993</c:v>
+                  <c:v>6535.7999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6605.7999999999993</c:v>
+                  <c:v>6683.9249999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6785.7999999999993</c:v>
+                  <c:v>6873.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6785.7999999999993</c:v>
+                  <c:v>6873.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6785.7999999999993</c:v>
+                  <c:v>6873.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6785.7999999999993</c:v>
+                  <c:v>6873.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7145.7999999999993</c:v>
+                  <c:v>7252.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7145.7999999999993</c:v>
+                  <c:v>7252.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7145.7999999999993</c:v>
+                  <c:v>7252.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7145.7999999999993</c:v>
+                  <c:v>7252.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7145.7999999999993</c:v>
+                  <c:v>7252.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7145.7999999999993</c:v>
+                  <c:v>7252.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9762.9333333333325</c:v>
+                  <c:v>9767.9333333333325</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10515.433333333332</c:v>
+                  <c:v>10525.433333333332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10515.433333333332</c:v>
+                  <c:v>10525.433333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10515.433333333332</c:v>
+                  <c:v>10525.433333333332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10565.433333333332</c:v>
+                  <c:v>10575.433333333332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10565.433333333332</c:v>
+                  <c:v>10575.433333333332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10941.683333333332</c:v>
+                  <c:v>10954.183333333332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10941.683333333332</c:v>
+                  <c:v>10954.183333333332</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10941.683333333332</c:v>
+                  <c:v>10954.183333333332</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10941.683333333332</c:v>
+                  <c:v>10954.183333333332</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10991.683333333332</c:v>
+                  <c:v>11004.183333333332</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10991.683333333332</c:v>
+                  <c:v>11004.183333333332</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34047.45416666667</c:v>
+                  <c:v>34078.70416666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34097.45416666667</c:v>
+                  <c:v>34128.70416666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34097.45416666667</c:v>
+                  <c:v>34128.70416666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34097.45416666667</c:v>
+                  <c:v>34128.70416666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34097.45416666667</c:v>
+                  <c:v>34128.70416666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34097.45416666667</c:v>
+                  <c:v>34128.70416666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36549.01666666667</c:v>
+                  <c:v>36595.89166666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38879.01666666667</c:v>
+                  <c:v>38925.89166666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38879.01666666667</c:v>
+                  <c:v>38925.89166666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>38879.01666666667</c:v>
+                  <c:v>38925.89166666667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38879.01666666667</c:v>
+                  <c:v>38925.89166666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38879.01666666667</c:v>
+                  <c:v>38925.89166666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>68420.581250000003</c:v>
+                  <c:v>68490.893750000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>68420.581250000003</c:v>
+                  <c:v>68490.893750000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68420.581250000003</c:v>
+                  <c:v>68490.893750000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68420.581250000003</c:v>
+                  <c:v>68490.893750000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68420.581250000003</c:v>
+                  <c:v>68490.893750000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68420.581250000003</c:v>
+                  <c:v>68490.893750000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>73711.596875000003</c:v>
+                  <c:v>73817.065625000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73711.596875000003</c:v>
+                  <c:v>73817.065625000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>73761.596875000003</c:v>
+                  <c:v>73867.065625000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>73761.596875000003</c:v>
+                  <c:v>73867.065625000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>73761.596875000003</c:v>
+                  <c:v>73867.065625000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>73761.596875000003</c:v>
+                  <c:v>73867.065625000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122427.5203125</c:v>
+                  <c:v>122585.7234375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>122427.5203125</c:v>
+                  <c:v>122585.7234375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>122477.5203125</c:v>
+                  <c:v>122635.7234375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>122477.5203125</c:v>
+                  <c:v>122635.7234375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>122477.5203125</c:v>
+                  <c:v>122635.7234375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>122477.5203125</c:v>
+                  <c:v>122635.7234375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>134382.30546875001</c:v>
+                  <c:v>134619.61015625001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>134432.30546875001</c:v>
+                  <c:v>134669.61015625001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>134432.30546875001</c:v>
+                  <c:v>134669.61015625001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>134432.30546875001</c:v>
+                  <c:v>134669.61015625001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>134432.30546875001</c:v>
+                  <c:v>134669.61015625001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>134432.30546875001</c:v>
+                  <c:v>134669.61015625001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10761,6 +10761,276 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B68F2C-5D78-478F-8A56-AA30F8446253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9658350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC04266-2EA5-4CAC-A53F-E3F79BEF1DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9658350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D655E97D-F512-42AD-A026-EEA0911276FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9658350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D04EDD-44A0-406E-B718-766D586B8A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9658350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A7717F-007F-49F1-950A-EBB415D5C7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9658350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20640,22 +20910,22 @@
       <c r="A4" s="29" t="s">
         <v>2052</v>
       </c>
-      <c r="B4" s="334">
+      <c r="B4" s="335">
         <f>'Resultats previsionnels'!C4</f>
         <v>2019</v>
       </c>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="334"/>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="334"/>
-      <c r="N4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335"/>
+      <c r="H4" s="335"/>
+      <c r="I4" s="335"/>
+      <c r="J4" s="335"/>
+      <c r="K4" s="335"/>
+      <c r="L4" s="335"/>
+      <c r="M4" s="335"/>
+      <c r="N4" s="335"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
@@ -20924,51 +21194,51 @@
       <c r="A11" s="29" t="s">
         <v>2052</v>
       </c>
-      <c r="B11" s="334">
+      <c r="B11" s="335">
         <f>'Resultats previsionnels'!O4</f>
         <v>2020</v>
       </c>
-      <c r="C11" s="334">
+      <c r="C11" s="335">
         <f>'Resultats previsionnels'!P4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="334">
+      <c r="D11" s="335">
         <f>'Resultats previsionnels'!Q4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="334">
+      <c r="E11" s="335">
         <f>'Resultats previsionnels'!R4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="334">
+      <c r="F11" s="335">
         <f>'Resultats previsionnels'!S4</f>
         <v>0</v>
       </c>
-      <c r="G11" s="334">
+      <c r="G11" s="335">
         <f>'Resultats previsionnels'!T4</f>
         <v>0</v>
       </c>
-      <c r="H11" s="334">
+      <c r="H11" s="335">
         <f>'Resultats previsionnels'!U4</f>
         <v>0</v>
       </c>
-      <c r="I11" s="334">
+      <c r="I11" s="335">
         <f>'Resultats previsionnels'!V4</f>
         <v>0</v>
       </c>
-      <c r="J11" s="334">
+      <c r="J11" s="335">
         <f>'Resultats previsionnels'!W4</f>
         <v>0</v>
       </c>
-      <c r="K11" s="334">
+      <c r="K11" s="335">
         <f>'Resultats previsionnels'!X4</f>
         <v>0</v>
       </c>
-      <c r="L11" s="334">
+      <c r="L11" s="335">
         <f>'Resultats previsionnels'!Y4</f>
         <v>0</v>
       </c>
-      <c r="M11" s="334">
+      <c r="M11" s="335">
         <f>'Resultats previsionnels'!Z4</f>
         <v>0</v>
       </c>
@@ -21327,51 +21597,51 @@
       <c r="A20" s="29" t="s">
         <v>2052</v>
       </c>
-      <c r="B20" s="334">
+      <c r="B20" s="335">
         <f>'Resultats previsionnels'!AA4</f>
         <v>2021</v>
       </c>
-      <c r="C20" s="334">
+      <c r="C20" s="335">
         <f>'Resultats previsionnels'!AB4</f>
         <v>0</v>
       </c>
-      <c r="D20" s="334">
+      <c r="D20" s="335">
         <f>'Resultats previsionnels'!AC4</f>
         <v>0</v>
       </c>
-      <c r="E20" s="334">
+      <c r="E20" s="335">
         <f>'Resultats previsionnels'!AD4</f>
         <v>0</v>
       </c>
-      <c r="F20" s="334">
+      <c r="F20" s="335">
         <f>'Resultats previsionnels'!AE4</f>
         <v>0</v>
       </c>
-      <c r="G20" s="334">
+      <c r="G20" s="335">
         <f>'Resultats previsionnels'!AF4</f>
         <v>0</v>
       </c>
-      <c r="H20" s="334">
+      <c r="H20" s="335">
         <f>'Resultats previsionnels'!AG4</f>
         <v>0</v>
       </c>
-      <c r="I20" s="334">
+      <c r="I20" s="335">
         <f>'Resultats previsionnels'!AH4</f>
         <v>0</v>
       </c>
-      <c r="J20" s="334">
+      <c r="J20" s="335">
         <f>'Resultats previsionnels'!AI4</f>
         <v>0</v>
       </c>
-      <c r="K20" s="334">
+      <c r="K20" s="335">
         <f>'Resultats previsionnels'!AJ4</f>
         <v>0</v>
       </c>
-      <c r="L20" s="334">
+      <c r="L20" s="335">
         <f>'Resultats previsionnels'!AK4</f>
         <v>0</v>
       </c>
-      <c r="M20" s="334">
+      <c r="M20" s="335">
         <f>'Resultats previsionnels'!AL4</f>
         <v>0</v>
       </c>
@@ -21832,51 +22102,51 @@
       <c r="A31" s="29" t="s">
         <v>2052</v>
       </c>
-      <c r="B31" s="334">
+      <c r="B31" s="335">
         <f>B20+1</f>
         <v>2022</v>
       </c>
-      <c r="C31" s="334">
+      <c r="C31" s="335">
         <f>'Resultats previsionnels'!AB14</f>
         <v>0</v>
       </c>
-      <c r="D31" s="334">
+      <c r="D31" s="335">
         <f>'Resultats previsionnels'!AC14</f>
         <v>0</v>
       </c>
-      <c r="E31" s="334">
+      <c r="E31" s="335">
         <f>'Resultats previsionnels'!AD14</f>
         <v>0</v>
       </c>
-      <c r="F31" s="334">
+      <c r="F31" s="335">
         <f>'Resultats previsionnels'!AE14</f>
         <v>0</v>
       </c>
-      <c r="G31" s="334">
+      <c r="G31" s="335">
         <f>'Resultats previsionnels'!AF14</f>
         <v>0</v>
       </c>
-      <c r="H31" s="334">
+      <c r="H31" s="335">
         <f>'Resultats previsionnels'!AG14</f>
         <v>0</v>
       </c>
-      <c r="I31" s="334">
+      <c r="I31" s="335">
         <f>'Resultats previsionnels'!AH14</f>
         <v>0</v>
       </c>
-      <c r="J31" s="334">
+      <c r="J31" s="335">
         <f>'Resultats previsionnels'!AI14</f>
         <v>0</v>
       </c>
-      <c r="K31" s="334">
+      <c r="K31" s="335">
         <f>'Resultats previsionnels'!AJ14</f>
         <v>0</v>
       </c>
-      <c r="L31" s="334">
+      <c r="L31" s="335">
         <f>'Resultats previsionnels'!AK14</f>
         <v>0</v>
       </c>
-      <c r="M31" s="334">
+      <c r="M31" s="335">
         <f>'Resultats previsionnels'!AL14</f>
         <v>0</v>
       </c>
@@ -22451,51 +22721,51 @@
       <c r="A44" s="29" t="s">
         <v>2052</v>
       </c>
-      <c r="B44" s="334">
+      <c r="B44" s="335">
         <f>B31+1</f>
         <v>2023</v>
       </c>
-      <c r="C44" s="334">
+      <c r="C44" s="335">
         <f>'Resultats previsionnels'!AB31</f>
         <v>0</v>
       </c>
-      <c r="D44" s="334">
+      <c r="D44" s="335">
         <f>'Resultats previsionnels'!AC31</f>
         <v>0</v>
       </c>
-      <c r="E44" s="334">
+      <c r="E44" s="335">
         <f>'Resultats previsionnels'!AD31</f>
         <v>0</v>
       </c>
-      <c r="F44" s="334">
+      <c r="F44" s="335">
         <f>'Resultats previsionnels'!AE31</f>
         <v>0</v>
       </c>
-      <c r="G44" s="334">
+      <c r="G44" s="335">
         <f>'Resultats previsionnels'!AF31</f>
         <v>0</v>
       </c>
-      <c r="H44" s="334">
+      <c r="H44" s="335">
         <f>'Resultats previsionnels'!AG31</f>
         <v>0</v>
       </c>
-      <c r="I44" s="334">
+      <c r="I44" s="335">
         <f>'Resultats previsionnels'!AH31</f>
         <v>0</v>
       </c>
-      <c r="J44" s="334">
+      <c r="J44" s="335">
         <f>'Resultats previsionnels'!AI31</f>
         <v>0</v>
       </c>
-      <c r="K44" s="334">
+      <c r="K44" s="335">
         <f>'Resultats previsionnels'!AJ31</f>
         <v>0</v>
       </c>
-      <c r="L44" s="334">
+      <c r="L44" s="335">
         <f>'Resultats previsionnels'!AK31</f>
         <v>0</v>
       </c>
-      <c r="M44" s="334">
+      <c r="M44" s="335">
         <f>'Resultats previsionnels'!AL31</f>
         <v>0</v>
       </c>
@@ -23233,19 +23503,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="337">
+      <c r="C3" s="338">
         <f>Hypotheses!$B$4</f>
         <v>2019</v>
       </c>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="338"/>
     </row>
     <row r="4" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="54" t="s">
@@ -23769,19 +24039,19 @@
     <row r="20" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C22" s="337">
+      <c r="C22" s="338">
         <f>C3+1</f>
         <v>2020</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="337"/>
-      <c r="H22" s="337"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
-      <c r="K22" s="337"/>
-      <c r="L22" s="337"/>
+      <c r="D22" s="338"/>
+      <c r="E22" s="338"/>
+      <c r="F22" s="338"/>
+      <c r="G22" s="338"/>
+      <c r="H22" s="338"/>
+      <c r="I22" s="338"/>
+      <c r="J22" s="338"/>
+      <c r="K22" s="338"/>
+      <c r="L22" s="338"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="54" t="str">
@@ -24315,19 +24585,19 @@
     <row r="39" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C41" s="337">
+      <c r="C41" s="338">
         <f>C22+1</f>
         <v>2021</v>
       </c>
-      <c r="D41" s="337"/>
-      <c r="E41" s="337"/>
-      <c r="F41" s="337"/>
-      <c r="G41" s="337"/>
-      <c r="H41" s="337"/>
-      <c r="I41" s="337"/>
-      <c r="J41" s="337"/>
-      <c r="K41" s="337"/>
-      <c r="L41" s="337"/>
+      <c r="D41" s="338"/>
+      <c r="E41" s="338"/>
+      <c r="F41" s="338"/>
+      <c r="G41" s="338"/>
+      <c r="H41" s="338"/>
+      <c r="I41" s="338"/>
+      <c r="J41" s="338"/>
+      <c r="K41" s="338"/>
+      <c r="L41" s="338"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="54" t="str">
@@ -24858,19 +25128,19 @@
     <row r="58" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:12" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C60" s="337">
+      <c r="C60" s="338">
         <f>C41+1</f>
         <v>2022</v>
       </c>
-      <c r="D60" s="337"/>
-      <c r="E60" s="337"/>
-      <c r="F60" s="337"/>
-      <c r="G60" s="337"/>
-      <c r="H60" s="337"/>
-      <c r="I60" s="337"/>
-      <c r="J60" s="337"/>
-      <c r="K60" s="337"/>
-      <c r="L60" s="337"/>
+      <c r="D60" s="338"/>
+      <c r="E60" s="338"/>
+      <c r="F60" s="338"/>
+      <c r="G60" s="338"/>
+      <c r="H60" s="338"/>
+      <c r="I60" s="338"/>
+      <c r="J60" s="338"/>
+      <c r="K60" s="338"/>
+      <c r="L60" s="338"/>
     </row>
     <row r="61" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="54" t="str">
@@ -25407,19 +25677,19 @@
     <row r="77" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:12" s="53" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C79" s="337">
+      <c r="C79" s="338">
         <f>C60+1</f>
         <v>2023</v>
       </c>
-      <c r="D79" s="337"/>
-      <c r="E79" s="337"/>
-      <c r="F79" s="337"/>
-      <c r="G79" s="337"/>
-      <c r="H79" s="337"/>
-      <c r="I79" s="337"/>
-      <c r="J79" s="337"/>
-      <c r="K79" s="337"/>
-      <c r="L79" s="337"/>
+      <c r="D79" s="338"/>
+      <c r="E79" s="338"/>
+      <c r="F79" s="338"/>
+      <c r="G79" s="338"/>
+      <c r="H79" s="338"/>
+      <c r="I79" s="338"/>
+      <c r="J79" s="338"/>
+      <c r="K79" s="338"/>
+      <c r="L79" s="338"/>
     </row>
     <row r="80" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C80" s="54" t="str">
@@ -25973,10 +26243,10 @@
       <c r="A103" s="105" t="s">
         <v>2086</v>
       </c>
-      <c r="B103" s="335" t="s">
+      <c r="B103" s="336" t="s">
         <v>2087</v>
       </c>
-      <c r="C103" s="335"/>
+      <c r="C103" s="336"/>
       <c r="D103" s="106" t="s">
         <v>2088</v>
       </c>
@@ -26047,10 +26317,10 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="336" t="s">
+      <c r="B109" s="337" t="s">
         <v>2087</v>
       </c>
-      <c r="C109" s="336"/>
+      <c r="C109" s="337"/>
       <c r="D109" s="56" t="s">
         <v>2074</v>
       </c>
@@ -26507,10 +26777,10 @@
   <dimension ref="A1:AMK190"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AY99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AY1" sqref="AY1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="BK133" sqref="BK133"/>
+      <selection pane="bottomRight" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -26548,81 +26818,81 @@
       <c r="BO3" s="135"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="C4" s="338">
+      <c r="C4" s="341">
         <f>Hypotheses!B4</f>
         <v>2019</v>
       </c>
-      <c r="D4" s="338"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
-      <c r="H4" s="338"/>
-      <c r="I4" s="338"/>
-      <c r="J4" s="338"/>
-      <c r="K4" s="338"/>
-      <c r="L4" s="338"/>
-      <c r="M4" s="338"/>
-      <c r="N4" s="338"/>
-      <c r="O4" s="339">
+      <c r="D4" s="341"/>
+      <c r="E4" s="341"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="341"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="341"/>
+      <c r="L4" s="341"/>
+      <c r="M4" s="341"/>
+      <c r="N4" s="341"/>
+      <c r="O4" s="342">
         <f>C4+1</f>
         <v>2020</v>
       </c>
-      <c r="P4" s="339"/>
-      <c r="Q4" s="339"/>
-      <c r="R4" s="339"/>
-      <c r="S4" s="339"/>
-      <c r="T4" s="339"/>
-      <c r="U4" s="339"/>
-      <c r="V4" s="339"/>
-      <c r="W4" s="339"/>
-      <c r="X4" s="339"/>
-      <c r="Y4" s="339"/>
-      <c r="Z4" s="339"/>
-      <c r="AA4" s="340">
+      <c r="P4" s="342"/>
+      <c r="Q4" s="342"/>
+      <c r="R4" s="342"/>
+      <c r="S4" s="342"/>
+      <c r="T4" s="342"/>
+      <c r="U4" s="342"/>
+      <c r="V4" s="342"/>
+      <c r="W4" s="342"/>
+      <c r="X4" s="342"/>
+      <c r="Y4" s="342"/>
+      <c r="Z4" s="342"/>
+      <c r="AA4" s="343">
         <f>O4+1</f>
         <v>2021</v>
       </c>
-      <c r="AB4" s="340"/>
-      <c r="AC4" s="340"/>
-      <c r="AD4" s="340"/>
-      <c r="AE4" s="340"/>
-      <c r="AF4" s="340"/>
-      <c r="AG4" s="340"/>
-      <c r="AH4" s="340"/>
-      <c r="AI4" s="340"/>
-      <c r="AJ4" s="340"/>
-      <c r="AK4" s="340"/>
-      <c r="AL4" s="340"/>
-      <c r="AM4" s="340">
+      <c r="AB4" s="343"/>
+      <c r="AC4" s="343"/>
+      <c r="AD4" s="343"/>
+      <c r="AE4" s="343"/>
+      <c r="AF4" s="343"/>
+      <c r="AG4" s="343"/>
+      <c r="AH4" s="343"/>
+      <c r="AI4" s="343"/>
+      <c r="AJ4" s="343"/>
+      <c r="AK4" s="343"/>
+      <c r="AL4" s="343"/>
+      <c r="AM4" s="343">
         <f>AA4+1</f>
         <v>2022</v>
       </c>
-      <c r="AN4" s="340"/>
-      <c r="AO4" s="340"/>
-      <c r="AP4" s="340"/>
-      <c r="AQ4" s="340"/>
-      <c r="AR4" s="340"/>
-      <c r="AS4" s="340"/>
-      <c r="AT4" s="340"/>
-      <c r="AU4" s="340"/>
-      <c r="AV4" s="340"/>
-      <c r="AW4" s="340"/>
-      <c r="AX4" s="340"/>
-      <c r="AY4" s="340">
+      <c r="AN4" s="343"/>
+      <c r="AO4" s="343"/>
+      <c r="AP4" s="343"/>
+      <c r="AQ4" s="343"/>
+      <c r="AR4" s="343"/>
+      <c r="AS4" s="343"/>
+      <c r="AT4" s="343"/>
+      <c r="AU4" s="343"/>
+      <c r="AV4" s="343"/>
+      <c r="AW4" s="343"/>
+      <c r="AX4" s="343"/>
+      <c r="AY4" s="343">
         <f>AM4+1</f>
         <v>2023</v>
       </c>
-      <c r="AZ4" s="340"/>
-      <c r="BA4" s="340"/>
-      <c r="BB4" s="340"/>
-      <c r="BC4" s="340"/>
-      <c r="BD4" s="340"/>
-      <c r="BE4" s="340"/>
-      <c r="BF4" s="340"/>
-      <c r="BG4" s="340"/>
-      <c r="BH4" s="340"/>
-      <c r="BI4" s="340"/>
-      <c r="BJ4" s="340"/>
+      <c r="AZ4" s="343"/>
+      <c r="BA4" s="343"/>
+      <c r="BB4" s="343"/>
+      <c r="BC4" s="343"/>
+      <c r="BD4" s="343"/>
+      <c r="BE4" s="343"/>
+      <c r="BF4" s="343"/>
+      <c r="BG4" s="343"/>
+      <c r="BH4" s="343"/>
+      <c r="BI4" s="343"/>
+      <c r="BJ4" s="343"/>
       <c r="BK4" s="136"/>
       <c r="BL4" s="135"/>
       <c r="BM4" s="135"/>
@@ -34265,224 +34535,224 @@
       <c r="BO62" s="53"/>
     </row>
     <row r="63" spans="1:1025" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="342" t="s">
+      <c r="A63" s="339" t="s">
         <v>2303</v>
       </c>
-      <c r="B63" s="342"/>
-      <c r="C63" s="344">
+      <c r="B63" s="339"/>
+      <c r="C63" s="334">
         <v>800</v>
       </c>
-      <c r="D63" s="344">
+      <c r="D63" s="334">
         <v>1200</v>
       </c>
-      <c r="E63" s="344">
+      <c r="E63" s="334">
         <v>1600</v>
       </c>
-      <c r="F63" s="344">
+      <c r="F63" s="334">
         <v>1600</v>
       </c>
-      <c r="G63" s="344">
+      <c r="G63" s="334">
         <v>1600</v>
       </c>
-      <c r="H63" s="344">
+      <c r="H63" s="334">
         <v>1600</v>
       </c>
-      <c r="I63" s="344">
+      <c r="I63" s="334">
         <f>$H$63+($H$63/2)</f>
         <v>2400</v>
       </c>
-      <c r="J63" s="344">
+      <c r="J63" s="334">
         <f t="shared" ref="J63:N63" si="47">$H$63+($H$63/2)</f>
         <v>2400</v>
       </c>
-      <c r="K63" s="344">
+      <c r="K63" s="334">
         <f t="shared" si="47"/>
         <v>2400</v>
       </c>
-      <c r="L63" s="344">
+      <c r="L63" s="334">
         <f t="shared" si="47"/>
         <v>2400</v>
       </c>
-      <c r="M63" s="344">
+      <c r="M63" s="334">
         <f t="shared" si="47"/>
         <v>2400</v>
       </c>
-      <c r="N63" s="344">
+      <c r="N63" s="334">
         <f t="shared" si="47"/>
         <v>2400</v>
       </c>
-      <c r="O63" s="344">
+      <c r="O63" s="334">
         <f>2*C63</f>
         <v>1600</v>
       </c>
-      <c r="P63" s="344">
+      <c r="P63" s="334">
         <v>3200</v>
       </c>
-      <c r="Q63" s="344">
+      <c r="Q63" s="334">
         <v>3200</v>
       </c>
-      <c r="R63" s="344">
+      <c r="R63" s="334">
         <v>3200</v>
       </c>
-      <c r="S63" s="344">
+      <c r="S63" s="334">
         <v>3200</v>
       </c>
-      <c r="T63" s="344">
+      <c r="T63" s="334">
         <v>3200</v>
       </c>
-      <c r="U63" s="344">
+      <c r="U63" s="334">
         <v>4000</v>
       </c>
-      <c r="V63" s="344">
+      <c r="V63" s="334">
         <v>4000</v>
       </c>
-      <c r="W63" s="344">
+      <c r="W63" s="334">
         <v>4000</v>
       </c>
-      <c r="X63" s="344">
+      <c r="X63" s="334">
         <v>4000</v>
       </c>
-      <c r="Y63" s="344">
+      <c r="Y63" s="334">
         <v>4000</v>
       </c>
-      <c r="Z63" s="344">
+      <c r="Z63" s="334">
         <v>4000</v>
       </c>
-      <c r="AA63" s="344">
+      <c r="AA63" s="334">
         <v>10000</v>
       </c>
-      <c r="AB63" s="344">
+      <c r="AB63" s="334">
         <v>10000</v>
       </c>
-      <c r="AC63" s="344">
+      <c r="AC63" s="334">
         <v>10000</v>
       </c>
-      <c r="AD63" s="344">
+      <c r="AD63" s="334">
         <v>10000</v>
       </c>
-      <c r="AE63" s="344">
+      <c r="AE63" s="334">
         <v>10000</v>
       </c>
-      <c r="AF63" s="344">
+      <c r="AF63" s="334">
         <v>10000</v>
       </c>
-      <c r="AG63" s="344">
+      <c r="AG63" s="334">
         <f>AA63+AA63/2</f>
         <v>15000</v>
       </c>
-      <c r="AH63" s="344">
+      <c r="AH63" s="334">
         <f t="shared" ref="AH63:AL63" si="48">AB63+AB63/2</f>
         <v>15000</v>
       </c>
-      <c r="AI63" s="344">
+      <c r="AI63" s="334">
         <f t="shared" si="48"/>
         <v>15000</v>
       </c>
-      <c r="AJ63" s="344">
+      <c r="AJ63" s="334">
         <f t="shared" si="48"/>
         <v>15000</v>
       </c>
-      <c r="AK63" s="344">
+      <c r="AK63" s="334">
         <f t="shared" si="48"/>
         <v>15000</v>
       </c>
-      <c r="AL63" s="344">
+      <c r="AL63" s="334">
         <f t="shared" si="48"/>
         <v>15000</v>
       </c>
-      <c r="AM63" s="344">
+      <c r="AM63" s="334">
         <f>AG63+AG63/2</f>
         <v>22500</v>
       </c>
-      <c r="AN63" s="344">
+      <c r="AN63" s="334">
         <f>AH63+AH63/2</f>
         <v>22500</v>
       </c>
-      <c r="AO63" s="344">
+      <c r="AO63" s="334">
         <f t="shared" ref="AO63" si="49">AI63+AI63/2</f>
         <v>22500</v>
       </c>
-      <c r="AP63" s="344">
+      <c r="AP63" s="334">
         <f t="shared" ref="AP63" si="50">AJ63+AJ63/2</f>
         <v>22500</v>
       </c>
-      <c r="AQ63" s="344">
+      <c r="AQ63" s="334">
         <f t="shared" ref="AQ63" si="51">AK63+AK63/2</f>
         <v>22500</v>
       </c>
-      <c r="AR63" s="344">
+      <c r="AR63" s="334">
         <f t="shared" ref="AR63" si="52">AL63+AL63/2</f>
         <v>22500</v>
       </c>
-      <c r="AS63" s="344">
+      <c r="AS63" s="334">
         <f t="shared" ref="AS63" si="53">AM63+AM63/2</f>
         <v>33750</v>
       </c>
-      <c r="AT63" s="344">
+      <c r="AT63" s="334">
         <f t="shared" ref="AT63:AW63" si="54">AN63+AN63/2</f>
         <v>33750</v>
       </c>
-      <c r="AU63" s="344">
+      <c r="AU63" s="334">
         <f t="shared" si="54"/>
         <v>33750</v>
       </c>
-      <c r="AV63" s="344">
+      <c r="AV63" s="334">
         <f t="shared" si="54"/>
         <v>33750</v>
       </c>
-      <c r="AW63" s="344">
+      <c r="AW63" s="334">
         <f t="shared" si="54"/>
         <v>33750</v>
       </c>
-      <c r="AX63" s="344">
+      <c r="AX63" s="334">
         <f t="shared" ref="AX63" si="55">AR63+AR63/2</f>
         <v>33750</v>
       </c>
-      <c r="AY63" s="344">
+      <c r="AY63" s="334">
         <f>AS63+AS63/2</f>
         <v>50625</v>
       </c>
-      <c r="AZ63" s="344">
+      <c r="AZ63" s="334">
         <f t="shared" ref="AZ63" si="56">AT63+AT63/2</f>
         <v>50625</v>
       </c>
-      <c r="BA63" s="344">
+      <c r="BA63" s="334">
         <f t="shared" ref="BA63" si="57">AU63+AU63/2</f>
         <v>50625</v>
       </c>
-      <c r="BB63" s="344">
+      <c r="BB63" s="334">
         <f t="shared" ref="BB63" si="58">AV63+AV63/2</f>
         <v>50625</v>
       </c>
-      <c r="BC63" s="344">
+      <c r="BC63" s="334">
         <f t="shared" ref="BC63" si="59">AW63+AW63/2</f>
         <v>50625</v>
       </c>
-      <c r="BD63" s="344">
+      <c r="BD63" s="334">
         <f t="shared" ref="BD63" si="60">AX63+AX63/2</f>
         <v>50625</v>
       </c>
-      <c r="BE63" s="344">
+      <c r="BE63" s="334">
         <f>AY63+AY63/2</f>
         <v>75937.5</v>
       </c>
-      <c r="BF63" s="344">
+      <c r="BF63" s="334">
         <f>AZ63+AZ63/2</f>
         <v>75937.5</v>
       </c>
-      <c r="BG63" s="344">
+      <c r="BG63" s="334">
         <f t="shared" ref="BG63" si="61">BA63+BA63/2</f>
         <v>75937.5</v>
       </c>
-      <c r="BH63" s="344">
+      <c r="BH63" s="334">
         <f t="shared" ref="BH63" si="62">BB63+BB63/2</f>
         <v>75937.5</v>
       </c>
-      <c r="BI63" s="344">
+      <c r="BI63" s="334">
         <f t="shared" ref="BI63" si="63">BC63+BC63/2</f>
         <v>75937.5</v>
       </c>
-      <c r="BJ63" s="344">
+      <c r="BJ63" s="334">
         <f t="shared" ref="BJ63" si="64">BD63+BD63/2</f>
         <v>75937.5</v>
       </c>
@@ -40160,263 +40430,263 @@
       <c r="B90" s="219"/>
       <c r="C90" s="215">
         <f t="shared" ref="C90:AH90" si="88">SUM(C91,C95,C98,C103,C110,C119,C114)</f>
-        <v>1016.5333333333333</v>
+        <v>1126.5333333333333</v>
       </c>
       <c r="D90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1094.6583333333333</v>
       </c>
       <c r="E90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1104.0333333333333</v>
       </c>
       <c r="F90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1104.0333333333333</v>
       </c>
       <c r="G90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1104.0333333333333</v>
       </c>
       <c r="H90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1104.0333333333333</v>
       </c>
       <c r="I90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1122.7833333333333</v>
       </c>
       <c r="J90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1122.7833333333333</v>
       </c>
       <c r="K90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1122.7833333333333</v>
       </c>
       <c r="L90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1122.7833333333333</v>
       </c>
       <c r="M90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1122.7833333333333</v>
       </c>
       <c r="N90" s="215">
         <f t="shared" si="88"/>
-        <v>1016.5333333333333</v>
+        <v>1122.7833333333333</v>
       </c>
       <c r="O90" s="215">
         <f t="shared" si="88"/>
-        <v>1479.0333333333333</v>
+        <v>1484.0333333333333</v>
       </c>
       <c r="P90" s="215">
         <f t="shared" si="88"/>
-        <v>1511.5333333333333</v>
+        <v>1521.5333333333333</v>
       </c>
       <c r="Q90" s="215">
         <f t="shared" si="88"/>
-        <v>1511.5333333333333</v>
+        <v>1521.5333333333333</v>
       </c>
       <c r="R90" s="215">
         <f t="shared" si="88"/>
-        <v>1511.5333333333333</v>
+        <v>1521.5333333333333</v>
       </c>
       <c r="S90" s="215">
         <f t="shared" si="88"/>
-        <v>1561.5333333333333</v>
+        <v>1571.5333333333333</v>
       </c>
       <c r="T90" s="215">
         <f t="shared" si="88"/>
-        <v>1561.5333333333333</v>
+        <v>1571.5333333333333</v>
       </c>
       <c r="U90" s="215">
         <f t="shared" si="88"/>
-        <v>1577.7833333333333</v>
+        <v>1590.2833333333333</v>
       </c>
       <c r="V90" s="215">
         <f t="shared" si="88"/>
-        <v>1577.7833333333333</v>
+        <v>1590.2833333333333</v>
       </c>
       <c r="W90" s="215">
         <f t="shared" si="88"/>
-        <v>1577.7833333333333</v>
+        <v>1590.2833333333333</v>
       </c>
       <c r="X90" s="215">
         <f t="shared" si="88"/>
-        <v>1577.7833333333333</v>
+        <v>1590.2833333333333</v>
       </c>
       <c r="Y90" s="215">
         <f t="shared" si="88"/>
-        <v>1627.7833333333333</v>
+        <v>1640.2833333333333</v>
       </c>
       <c r="Z90" s="215">
         <f t="shared" si="88"/>
-        <v>1627.7833333333333</v>
+        <v>1640.2833333333333</v>
       </c>
       <c r="AA90" s="215">
         <f t="shared" si="88"/>
-        <v>2089.6583333333333</v>
+        <v>2120.9083333333333</v>
       </c>
       <c r="AB90" s="215">
         <f t="shared" si="88"/>
-        <v>2139.6583333333333</v>
+        <v>2170.9083333333333</v>
       </c>
       <c r="AC90" s="215">
         <f t="shared" si="88"/>
-        <v>2139.6583333333333</v>
+        <v>2170.9083333333333</v>
       </c>
       <c r="AD90" s="215">
         <f t="shared" si="88"/>
-        <v>2139.6583333333333</v>
+        <v>2170.9083333333333</v>
       </c>
       <c r="AE90" s="215">
         <f t="shared" si="88"/>
-        <v>2139.6583333333333</v>
+        <v>2170.9083333333333</v>
       </c>
       <c r="AF90" s="215">
         <f t="shared" si="88"/>
-        <v>2139.6583333333333</v>
+        <v>2170.9083333333333</v>
       </c>
       <c r="AG90" s="215">
         <f t="shared" si="88"/>
-        <v>2241.2208333333333</v>
+        <v>2288.0958333333333</v>
       </c>
       <c r="AH90" s="215">
         <f t="shared" si="88"/>
-        <v>2341.2208333333333</v>
+        <v>2388.0958333333333</v>
       </c>
       <c r="AI90" s="215">
         <f t="shared" ref="AI90:BJ90" si="89">SUM(AI91,AI95,AI98,AI103,AI110,AI119,AI114)</f>
-        <v>2341.2208333333333</v>
+        <v>2388.0958333333333</v>
       </c>
       <c r="AJ90" s="215">
         <f t="shared" si="89"/>
-        <v>2341.2208333333333</v>
+        <v>2388.0958333333333</v>
       </c>
       <c r="AK90" s="215">
         <f t="shared" si="89"/>
-        <v>2341.2208333333333</v>
+        <v>2388.0958333333333</v>
       </c>
       <c r="AL90" s="215">
         <f t="shared" si="89"/>
-        <v>2341.2208333333333</v>
+        <v>2388.0958333333333</v>
       </c>
       <c r="AM90" s="215">
         <f t="shared" si="89"/>
-        <v>3157.6312499999999</v>
+        <v>3227.9437499999999</v>
       </c>
       <c r="AN90" s="215">
         <f t="shared" si="89"/>
-        <v>3157.6312499999999</v>
+        <v>3227.9437499999999</v>
       </c>
       <c r="AO90" s="215">
         <f t="shared" si="89"/>
-        <v>3157.6312499999999</v>
+        <v>3227.9437499999999</v>
       </c>
       <c r="AP90" s="215">
         <f t="shared" si="89"/>
-        <v>3157.6312499999999</v>
+        <v>3227.9437499999999</v>
       </c>
       <c r="AQ90" s="215">
         <f t="shared" si="89"/>
-        <v>3157.6312499999999</v>
+        <v>3227.9437499999999</v>
       </c>
       <c r="AR90" s="215">
         <f t="shared" si="89"/>
-        <v>3157.6312499999999</v>
+        <v>3227.9437499999999</v>
       </c>
       <c r="AS90" s="215">
         <f t="shared" si="89"/>
-        <v>3386.1468749999999</v>
+        <v>3491.6156249999999</v>
       </c>
       <c r="AT90" s="215">
         <f t="shared" si="89"/>
-        <v>3386.1468749999999</v>
+        <v>3491.6156249999999</v>
       </c>
       <c r="AU90" s="215">
         <f t="shared" si="89"/>
-        <v>3436.1468749999999</v>
+        <v>3541.6156249999999</v>
       </c>
       <c r="AV90" s="215">
         <f t="shared" si="89"/>
-        <v>3436.1468749999999</v>
+        <v>3541.6156249999999</v>
       </c>
       <c r="AW90" s="215">
         <f t="shared" si="89"/>
-        <v>3436.1468749999999</v>
+        <v>3541.6156249999999</v>
       </c>
       <c r="AX90" s="215">
         <f t="shared" si="89"/>
-        <v>3436.1468749999999</v>
+        <v>3541.6156249999999</v>
       </c>
       <c r="AY90" s="215">
         <f t="shared" si="89"/>
-        <v>5240.9203125000004</v>
+        <v>5399.1234375000004</v>
       </c>
       <c r="AZ90" s="215">
         <f t="shared" si="89"/>
-        <v>5240.9203125000004</v>
+        <v>5399.1234375000004</v>
       </c>
       <c r="BA90" s="215">
         <f t="shared" si="89"/>
-        <v>5290.9203125000004</v>
+        <v>5449.1234375000004</v>
       </c>
       <c r="BB90" s="215">
         <f t="shared" si="89"/>
-        <v>5290.9203125000004</v>
+        <v>5449.1234375000004</v>
       </c>
       <c r="BC90" s="215">
         <f t="shared" si="89"/>
-        <v>5290.9203125000004</v>
+        <v>5449.1234375000004</v>
       </c>
       <c r="BD90" s="215">
         <f t="shared" si="89"/>
-        <v>5290.9203125000004</v>
+        <v>5449.1234375000004</v>
       </c>
       <c r="BE90" s="215">
         <f t="shared" si="89"/>
-        <v>5805.0804687500004</v>
+        <v>6042.3851562500004</v>
       </c>
       <c r="BF90" s="215">
         <f t="shared" si="89"/>
-        <v>5855.0804687500004</v>
+        <v>6092.3851562500004</v>
       </c>
       <c r="BG90" s="215">
         <f t="shared" si="89"/>
-        <v>5855.0804687500004</v>
+        <v>6092.3851562500004</v>
       </c>
       <c r="BH90" s="215">
         <f t="shared" si="89"/>
-        <v>5855.0804687500004</v>
+        <v>6092.3851562500004</v>
       </c>
       <c r="BI90" s="215">
         <f t="shared" si="89"/>
-        <v>5855.0804687500004</v>
+        <v>6092.3851562500004</v>
       </c>
       <c r="BJ90" s="215">
         <f t="shared" si="89"/>
-        <v>5855.0804687500004</v>
+        <v>6092.3851562500004</v>
       </c>
       <c r="BK90" s="208">
         <f t="shared" si="79"/>
-        <v>12198.399999999996</v>
+        <v>13374.024999999996</v>
       </c>
       <c r="BL90" s="208">
         <f t="shared" si="80"/>
-        <v>18703.399999999998</v>
+        <v>18833.399999999998</v>
       </c>
       <c r="BM90" s="208">
         <f t="shared" si="81"/>
-        <v>26735.274999999998</v>
+        <v>27204.024999999998</v>
       </c>
       <c r="BN90" s="208">
         <f t="shared" si="82"/>
-        <v>39462.66874999999</v>
+        <v>40517.35624999999</v>
       </c>
       <c r="BO90" s="208">
         <f t="shared" si="83"/>
-        <v>66726.004687499997</v>
+        <v>69099.051562499997</v>
       </c>
     </row>
     <row r="91" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -44928,263 +45198,263 @@
       </c>
       <c r="C119" s="144">
         <f t="shared" ref="C119:AH119" si="110">SUM(C120:C134)</f>
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="D119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>578.125</v>
       </c>
       <c r="E119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>587.5</v>
       </c>
       <c r="F119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>587.5</v>
       </c>
       <c r="G119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>587.5</v>
       </c>
       <c r="H119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>587.5</v>
       </c>
       <c r="I119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>606.25</v>
       </c>
       <c r="J119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>606.25</v>
       </c>
       <c r="K119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>606.25</v>
       </c>
       <c r="L119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>606.25</v>
       </c>
       <c r="M119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>606.25</v>
       </c>
       <c r="N119" s="144">
         <f t="shared" si="110"/>
-        <v>500</v>
+        <v>606.25</v>
       </c>
       <c r="O119" s="144">
         <f t="shared" si="110"/>
-        <v>882.5</v>
+        <v>887.5</v>
       </c>
       <c r="P119" s="144">
         <f t="shared" si="110"/>
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="Q119" s="144">
         <f t="shared" si="110"/>
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="R119" s="144">
         <f t="shared" si="110"/>
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="S119" s="144">
         <f t="shared" si="110"/>
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="T119" s="144">
         <f t="shared" si="110"/>
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="U119" s="144">
         <f t="shared" si="110"/>
-        <v>981.25</v>
+        <v>993.75</v>
       </c>
       <c r="V119" s="144">
         <f t="shared" si="110"/>
-        <v>981.25</v>
+        <v>993.75</v>
       </c>
       <c r="W119" s="144">
         <f t="shared" si="110"/>
-        <v>981.25</v>
+        <v>993.75</v>
       </c>
       <c r="X119" s="144">
         <f t="shared" si="110"/>
-        <v>981.25</v>
+        <v>993.75</v>
       </c>
       <c r="Y119" s="144">
         <f t="shared" si="110"/>
-        <v>1031.25</v>
+        <v>1043.75</v>
       </c>
       <c r="Z119" s="144">
         <f t="shared" si="110"/>
-        <v>1031.25</v>
+        <v>1043.75</v>
       </c>
       <c r="AA119" s="144">
         <f t="shared" si="110"/>
-        <v>1303.125</v>
+        <v>1334.375</v>
       </c>
       <c r="AB119" s="144">
         <f t="shared" si="110"/>
-        <v>1353.125</v>
+        <v>1384.375</v>
       </c>
       <c r="AC119" s="144">
         <f t="shared" si="110"/>
-        <v>1353.125</v>
+        <v>1384.375</v>
       </c>
       <c r="AD119" s="144">
         <f t="shared" si="110"/>
-        <v>1353.125</v>
+        <v>1384.375</v>
       </c>
       <c r="AE119" s="144">
         <f t="shared" si="110"/>
-        <v>1353.125</v>
+        <v>1384.375</v>
       </c>
       <c r="AF119" s="144">
         <f t="shared" si="110"/>
-        <v>1353.125</v>
+        <v>1384.375</v>
       </c>
       <c r="AG119" s="144">
         <f t="shared" si="110"/>
-        <v>1454.6875</v>
+        <v>1501.5625</v>
       </c>
       <c r="AH119" s="144">
         <f t="shared" si="110"/>
-        <v>1504.6875</v>
+        <v>1551.5625</v>
       </c>
       <c r="AI119" s="144">
         <f t="shared" ref="AI119:BJ119" si="111">SUM(AI120:AI134)</f>
-        <v>1504.6875</v>
+        <v>1551.5625</v>
       </c>
       <c r="AJ119" s="144">
         <f t="shared" si="111"/>
-        <v>1504.6875</v>
+        <v>1551.5625</v>
       </c>
       <c r="AK119" s="144">
         <f t="shared" si="111"/>
-        <v>1504.6875</v>
+        <v>1551.5625</v>
       </c>
       <c r="AL119" s="144">
         <f t="shared" si="111"/>
-        <v>1504.6875</v>
+        <v>1551.5625</v>
       </c>
       <c r="AM119" s="144">
         <f t="shared" si="111"/>
-        <v>1857.03125</v>
+        <v>1927.34375</v>
       </c>
       <c r="AN119" s="144">
         <f t="shared" si="111"/>
-        <v>1857.03125</v>
+        <v>1927.34375</v>
       </c>
       <c r="AO119" s="144">
         <f t="shared" si="111"/>
-        <v>1857.03125</v>
+        <v>1927.34375</v>
       </c>
       <c r="AP119" s="144">
         <f t="shared" si="111"/>
-        <v>1857.03125</v>
+        <v>1927.34375</v>
       </c>
       <c r="AQ119" s="144">
         <f t="shared" si="111"/>
-        <v>1857.03125</v>
+        <v>1927.34375</v>
       </c>
       <c r="AR119" s="144">
         <f t="shared" si="111"/>
-        <v>1857.03125</v>
+        <v>1927.34375</v>
       </c>
       <c r="AS119" s="144">
         <f t="shared" si="111"/>
-        <v>2085.546875</v>
+        <v>2191.015625</v>
       </c>
       <c r="AT119" s="144">
         <f t="shared" si="111"/>
-        <v>2085.546875</v>
+        <v>2191.015625</v>
       </c>
       <c r="AU119" s="144">
         <f t="shared" si="111"/>
-        <v>2135.546875</v>
+        <v>2241.015625</v>
       </c>
       <c r="AV119" s="144">
         <f t="shared" si="111"/>
-        <v>2135.546875</v>
+        <v>2241.015625</v>
       </c>
       <c r="AW119" s="144">
         <f t="shared" si="111"/>
-        <v>2135.546875</v>
+        <v>2241.015625</v>
       </c>
       <c r="AX119" s="144">
         <f t="shared" si="111"/>
-        <v>2135.546875</v>
+        <v>2241.015625</v>
       </c>
       <c r="AY119" s="144">
         <f t="shared" si="111"/>
-        <v>2878.3203125</v>
+        <v>3036.5234375</v>
       </c>
       <c r="AZ119" s="144">
         <f t="shared" si="111"/>
-        <v>2878.3203125</v>
+        <v>3036.5234375</v>
       </c>
       <c r="BA119" s="144">
         <f t="shared" si="111"/>
-        <v>2928.3203125</v>
+        <v>3086.5234375</v>
       </c>
       <c r="BB119" s="144">
         <f t="shared" si="111"/>
-        <v>2928.3203125</v>
+        <v>3086.5234375</v>
       </c>
       <c r="BC119" s="144">
         <f t="shared" si="111"/>
-        <v>2928.3203125</v>
+        <v>3086.5234375</v>
       </c>
       <c r="BD119" s="144">
         <f t="shared" si="111"/>
-        <v>2928.3203125</v>
+        <v>3086.5234375</v>
       </c>
       <c r="BE119" s="144">
         <f t="shared" si="111"/>
-        <v>3442.48046875</v>
+        <v>3679.78515625</v>
       </c>
       <c r="BF119" s="144">
         <f t="shared" si="111"/>
-        <v>3492.48046875</v>
+        <v>3729.78515625</v>
       </c>
       <c r="BG119" s="144">
         <f t="shared" si="111"/>
-        <v>3492.48046875</v>
+        <v>3729.78515625</v>
       </c>
       <c r="BH119" s="144">
         <f t="shared" si="111"/>
-        <v>3492.48046875</v>
+        <v>3729.78515625</v>
       </c>
       <c r="BI119" s="144">
         <f t="shared" si="111"/>
-        <v>3492.48046875</v>
+        <v>3729.78515625</v>
       </c>
       <c r="BJ119" s="144">
         <f t="shared" si="111"/>
-        <v>3492.48046875</v>
+        <v>3729.78515625</v>
       </c>
       <c r="BK119" s="191">
         <f>SUM(BK120:BK133)</f>
-        <v>6000</v>
+        <v>7175.625</v>
       </c>
       <c r="BL119" s="191">
         <f>SUM(BL120:BL133)</f>
-        <v>11545</v>
+        <v>11675</v>
       </c>
       <c r="BM119" s="191">
         <f>SUM(BM120:BM133)</f>
-        <v>17046.875</v>
+        <v>17515.625</v>
       </c>
       <c r="BN119" s="191">
         <f>SUM(BN120:BN133)</f>
-        <v>23855.46875</v>
+        <v>24910.15625</v>
       </c>
       <c r="BO119" s="191">
         <f>SUM(BO120:BO133)</f>
-        <v>38374.8046875</v>
+        <v>40747.8515625</v>
       </c>
     </row>
     <row r="120" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -46474,253 +46744,265 @@
       <c r="B132" s="158" t="s">
         <v>1603</v>
       </c>
-      <c r="C132" s="127">
-        <v>100</v>
-      </c>
-      <c r="D132" s="127">
-        <v>100</v>
-      </c>
-      <c r="E132" s="127">
-        <v>100</v>
-      </c>
-      <c r="F132" s="127">
-        <v>100</v>
-      </c>
-      <c r="G132" s="127">
-        <v>100</v>
-      </c>
-      <c r="H132" s="127">
-        <v>100</v>
-      </c>
-      <c r="I132" s="127">
-        <v>100</v>
-      </c>
-      <c r="J132" s="127">
-        <v>100</v>
-      </c>
-      <c r="K132" s="127">
-        <v>100</v>
-      </c>
-      <c r="L132" s="127">
-        <v>100</v>
-      </c>
-      <c r="M132" s="127">
-        <v>100</v>
-      </c>
-      <c r="N132" s="127">
-        <v>100</v>
+      <c r="C132" s="176">
+        <f xml:space="preserve"> 150 +(80*0.75)</f>
+        <v>210</v>
+      </c>
+      <c r="D132" s="176">
+        <f t="shared" ref="C132:N132" si="117" xml:space="preserve"> 150 +((D63/32)*0.75)</f>
+        <v>178.125</v>
+      </c>
+      <c r="E132" s="176">
+        <f t="shared" si="117"/>
+        <v>187.5</v>
+      </c>
+      <c r="F132" s="176">
+        <f t="shared" si="117"/>
+        <v>187.5</v>
+      </c>
+      <c r="G132" s="176">
+        <f t="shared" si="117"/>
+        <v>187.5</v>
+      </c>
+      <c r="H132" s="176">
+        <f t="shared" si="117"/>
+        <v>187.5</v>
+      </c>
+      <c r="I132" s="176">
+        <f t="shared" si="117"/>
+        <v>206.25</v>
+      </c>
+      <c r="J132" s="176">
+        <f t="shared" si="117"/>
+        <v>206.25</v>
+      </c>
+      <c r="K132" s="176">
+        <f t="shared" si="117"/>
+        <v>206.25</v>
+      </c>
+      <c r="L132" s="176">
+        <f t="shared" si="117"/>
+        <v>206.25</v>
+      </c>
+      <c r="M132" s="176">
+        <f t="shared" si="117"/>
+        <v>206.25</v>
+      </c>
+      <c r="N132" s="176">
+        <f t="shared" si="117"/>
+        <v>206.25</v>
       </c>
       <c r="O132" s="176">
-        <f xml:space="preserve"> 150 +((O63/32)*0.65)</f>
-        <v>182.5</v>
+        <f xml:space="preserve"> 150 +((O63/32)*0.75)</f>
+        <v>187.5</v>
       </c>
       <c r="P132" s="176">
-        <f t="shared" ref="P132:BJ132" si="117" xml:space="preserve"> 150 +((P63/32)*0.65)</f>
-        <v>215</v>
+        <f t="shared" ref="P132:BJ132" si="118" xml:space="preserve"> 150 +((P63/32)*0.75)</f>
+        <v>225</v>
       </c>
       <c r="Q132" s="176">
-        <f t="shared" si="117"/>
-        <v>215</v>
+        <f t="shared" si="118"/>
+        <v>225</v>
       </c>
       <c r="R132" s="176">
-        <f t="shared" si="117"/>
-        <v>215</v>
+        <f t="shared" si="118"/>
+        <v>225</v>
       </c>
       <c r="S132" s="176">
-        <f t="shared" si="117"/>
-        <v>215</v>
+        <f t="shared" si="118"/>
+        <v>225</v>
       </c>
       <c r="T132" s="176">
-        <f t="shared" si="117"/>
-        <v>215</v>
+        <f t="shared" si="118"/>
+        <v>225</v>
       </c>
       <c r="U132" s="176">
-        <f t="shared" si="117"/>
-        <v>231.25</v>
+        <f t="shared" si="118"/>
+        <v>243.75</v>
       </c>
       <c r="V132" s="176">
-        <f t="shared" si="117"/>
-        <v>231.25</v>
+        <f t="shared" si="118"/>
+        <v>243.75</v>
       </c>
       <c r="W132" s="176">
-        <f t="shared" si="117"/>
-        <v>231.25</v>
+        <f t="shared" si="118"/>
+        <v>243.75</v>
       </c>
       <c r="X132" s="176">
-        <f t="shared" si="117"/>
-        <v>231.25</v>
+        <f t="shared" si="118"/>
+        <v>243.75</v>
       </c>
       <c r="Y132" s="176">
-        <f t="shared" si="117"/>
-        <v>231.25</v>
+        <f t="shared" si="118"/>
+        <v>243.75</v>
       </c>
       <c r="Z132" s="176">
-        <f t="shared" si="117"/>
-        <v>231.25</v>
+        <f t="shared" si="118"/>
+        <v>243.75</v>
       </c>
       <c r="AA132" s="176">
-        <f t="shared" si="117"/>
-        <v>353.125</v>
+        <f t="shared" si="118"/>
+        <v>384.375</v>
       </c>
       <c r="AB132" s="176">
-        <f t="shared" si="117"/>
-        <v>353.125</v>
+        <f t="shared" si="118"/>
+        <v>384.375</v>
       </c>
       <c r="AC132" s="176">
-        <f t="shared" si="117"/>
-        <v>353.125</v>
+        <f t="shared" si="118"/>
+        <v>384.375</v>
       </c>
       <c r="AD132" s="176">
-        <f t="shared" si="117"/>
-        <v>353.125</v>
+        <f t="shared" si="118"/>
+        <v>384.375</v>
       </c>
       <c r="AE132" s="176">
-        <f t="shared" si="117"/>
-        <v>353.125</v>
+        <f t="shared" si="118"/>
+        <v>384.375</v>
       </c>
       <c r="AF132" s="176">
-        <f t="shared" si="117"/>
-        <v>353.125</v>
+        <f t="shared" si="118"/>
+        <v>384.375</v>
       </c>
       <c r="AG132" s="176">
-        <f t="shared" si="117"/>
-        <v>454.6875</v>
+        <f t="shared" si="118"/>
+        <v>501.5625</v>
       </c>
       <c r="AH132" s="176">
-        <f t="shared" si="117"/>
-        <v>454.6875</v>
+        <f t="shared" si="118"/>
+        <v>501.5625</v>
       </c>
       <c r="AI132" s="176">
-        <f t="shared" si="117"/>
-        <v>454.6875</v>
+        <f t="shared" si="118"/>
+        <v>501.5625</v>
       </c>
       <c r="AJ132" s="176">
-        <f t="shared" si="117"/>
-        <v>454.6875</v>
+        <f t="shared" si="118"/>
+        <v>501.5625</v>
       </c>
       <c r="AK132" s="176">
-        <f t="shared" si="117"/>
-        <v>454.6875</v>
+        <f t="shared" si="118"/>
+        <v>501.5625</v>
       </c>
       <c r="AL132" s="176">
-        <f t="shared" si="117"/>
-        <v>454.6875</v>
+        <f t="shared" si="118"/>
+        <v>501.5625</v>
       </c>
       <c r="AM132" s="176">
-        <f t="shared" si="117"/>
-        <v>607.03125</v>
+        <f t="shared" si="118"/>
+        <v>677.34375</v>
       </c>
       <c r="AN132" s="176">
-        <f t="shared" si="117"/>
-        <v>607.03125</v>
+        <f t="shared" si="118"/>
+        <v>677.34375</v>
       </c>
       <c r="AO132" s="176">
-        <f t="shared" si="117"/>
-        <v>607.03125</v>
+        <f t="shared" si="118"/>
+        <v>677.34375</v>
       </c>
       <c r="AP132" s="176">
-        <f t="shared" si="117"/>
-        <v>607.03125</v>
+        <f t="shared" si="118"/>
+        <v>677.34375</v>
       </c>
       <c r="AQ132" s="176">
-        <f t="shared" si="117"/>
-        <v>607.03125</v>
+        <f t="shared" si="118"/>
+        <v>677.34375</v>
       </c>
       <c r="AR132" s="176">
-        <f t="shared" si="117"/>
-        <v>607.03125</v>
+        <f t="shared" si="118"/>
+        <v>677.34375</v>
       </c>
       <c r="AS132" s="176">
-        <f t="shared" si="117"/>
-        <v>835.546875</v>
+        <f t="shared" si="118"/>
+        <v>941.015625</v>
       </c>
       <c r="AT132" s="176">
-        <f t="shared" si="117"/>
-        <v>835.546875</v>
+        <f t="shared" si="118"/>
+        <v>941.015625</v>
       </c>
       <c r="AU132" s="176">
-        <f t="shared" si="117"/>
-        <v>835.546875</v>
+        <f t="shared" si="118"/>
+        <v>941.015625</v>
       </c>
       <c r="AV132" s="176">
-        <f t="shared" si="117"/>
-        <v>835.546875</v>
+        <f t="shared" si="118"/>
+        <v>941.015625</v>
       </c>
       <c r="AW132" s="176">
-        <f t="shared" si="117"/>
-        <v>835.546875</v>
+        <f t="shared" si="118"/>
+        <v>941.015625</v>
       </c>
       <c r="AX132" s="176">
-        <f t="shared" si="117"/>
-        <v>835.546875</v>
+        <f t="shared" si="118"/>
+        <v>941.015625</v>
       </c>
       <c r="AY132" s="176">
-        <f t="shared" si="117"/>
-        <v>1178.3203125</v>
+        <f t="shared" si="118"/>
+        <v>1336.5234375</v>
       </c>
       <c r="AZ132" s="176">
-        <f t="shared" si="117"/>
-        <v>1178.3203125</v>
+        <f t="shared" si="118"/>
+        <v>1336.5234375</v>
       </c>
       <c r="BA132" s="176">
-        <f t="shared" si="117"/>
-        <v>1178.3203125</v>
+        <f t="shared" si="118"/>
+        <v>1336.5234375</v>
       </c>
       <c r="BB132" s="176">
-        <f t="shared" si="117"/>
-        <v>1178.3203125</v>
+        <f t="shared" si="118"/>
+        <v>1336.5234375</v>
       </c>
       <c r="BC132" s="176">
-        <f t="shared" si="117"/>
-        <v>1178.3203125</v>
+        <f t="shared" si="118"/>
+        <v>1336.5234375</v>
       </c>
       <c r="BD132" s="176">
-        <f t="shared" si="117"/>
-        <v>1178.3203125</v>
+        <f t="shared" si="118"/>
+        <v>1336.5234375</v>
       </c>
       <c r="BE132" s="176">
-        <f t="shared" si="117"/>
-        <v>1692.48046875</v>
+        <f t="shared" si="118"/>
+        <v>1929.78515625</v>
       </c>
       <c r="BF132" s="176">
-        <f t="shared" si="117"/>
-        <v>1692.48046875</v>
+        <f t="shared" si="118"/>
+        <v>1929.78515625</v>
       </c>
       <c r="BG132" s="176">
-        <f t="shared" si="117"/>
-        <v>1692.48046875</v>
+        <f t="shared" si="118"/>
+        <v>1929.78515625</v>
       </c>
       <c r="BH132" s="176">
-        <f t="shared" si="117"/>
-        <v>1692.48046875</v>
+        <f t="shared" si="118"/>
+        <v>1929.78515625</v>
       </c>
       <c r="BI132" s="176">
-        <f t="shared" si="117"/>
-        <v>1692.48046875</v>
+        <f t="shared" si="118"/>
+        <v>1929.78515625</v>
       </c>
       <c r="BJ132" s="176">
-        <f t="shared" si="117"/>
-        <v>1692.48046875</v>
+        <f t="shared" si="118"/>
+        <v>1929.78515625</v>
       </c>
       <c r="BK132" s="194">
         <f t="shared" si="112"/>
-        <v>1200</v>
+        <v>2375.625</v>
       </c>
       <c r="BL132" s="194">
         <f t="shared" si="113"/>
-        <v>2645</v>
+        <v>2775</v>
       </c>
       <c r="BM132" s="194">
         <f t="shared" si="114"/>
-        <v>4846.875</v>
+        <v>5315.625</v>
       </c>
       <c r="BN132" s="194">
         <f t="shared" si="115"/>
-        <v>8655.46875</v>
+        <v>9710.15625</v>
       </c>
       <c r="BO132" s="194">
         <f t="shared" si="116"/>
-        <v>17224.8046875</v>
+        <v>19597.8515625</v>
       </c>
     </row>
     <row r="133" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -47010,243 +47292,243 @@
       </c>
       <c r="B135" s="219"/>
       <c r="C135" s="215">
-        <f t="shared" ref="C135:AH135" si="118">SUM(C136:C141)</f>
+        <f t="shared" ref="C135:AH135" si="119">SUM(C136:C141)</f>
         <v>0</v>
       </c>
       <c r="D135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="E135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="F135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="G135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="H135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="I135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="J135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="K135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="L135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="M135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="N135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="O135" s="216">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="P135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Q135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="R135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="X135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Z135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA135" s="216">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AB135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AE135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AF135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AG135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AH135" s="215">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AI135" s="215">
-        <f t="shared" ref="AI135:BJ135" si="119">SUM(AI136:AI141)</f>
+        <f t="shared" ref="AI135:BJ135" si="120">SUM(AI136:AI141)</f>
         <v>0</v>
       </c>
       <c r="AJ135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AK135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AL135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AM135" s="216">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AN135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AO135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AP135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AQ135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AR135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AS135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AT135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AU135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AV135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AW135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AX135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AY135" s="216">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AZ135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BA135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BB135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BC135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BD135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BE135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BF135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BG135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BH135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BI135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BJ135" s="215">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BK135" s="208">
@@ -47942,264 +48224,264 @@
       </c>
       <c r="B142" s="233"/>
       <c r="C142" s="234">
-        <f t="shared" ref="C142:AH142" si="120">C135+C90+C86+C80+C76+C73</f>
-        <v>6425.7999999999993</v>
+        <f t="shared" ref="C142:AH142" si="121">C135+C90+C86+C80+C76+C73</f>
+        <v>6535.7999999999993</v>
       </c>
       <c r="D142" s="234">
-        <f t="shared" si="120"/>
-        <v>6605.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>6683.9249999999993</v>
       </c>
       <c r="E142" s="234">
-        <f t="shared" si="120"/>
-        <v>6785.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>6873.2999999999993</v>
       </c>
       <c r="F142" s="234">
-        <f t="shared" si="120"/>
-        <v>6785.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>6873.2999999999993</v>
       </c>
       <c r="G142" s="234">
-        <f t="shared" si="120"/>
-        <v>6785.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>6873.2999999999993</v>
       </c>
       <c r="H142" s="234">
-        <f t="shared" si="120"/>
-        <v>6785.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>6873.2999999999993</v>
       </c>
       <c r="I142" s="234">
-        <f t="shared" si="120"/>
-        <v>7145.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>7252.0499999999993</v>
       </c>
       <c r="J142" s="234">
-        <f t="shared" si="120"/>
-        <v>7145.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>7252.0499999999993</v>
       </c>
       <c r="K142" s="234">
-        <f t="shared" si="120"/>
-        <v>7145.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>7252.0499999999993</v>
       </c>
       <c r="L142" s="234">
-        <f t="shared" si="120"/>
-        <v>7145.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>7252.0499999999993</v>
       </c>
       <c r="M142" s="234">
-        <f t="shared" si="120"/>
-        <v>7145.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>7252.0499999999993</v>
       </c>
       <c r="N142" s="234">
-        <f t="shared" si="120"/>
-        <v>7145.7999999999993</v>
+        <f t="shared" si="121"/>
+        <v>7252.0499999999993</v>
       </c>
       <c r="O142" s="234">
-        <f t="shared" si="120"/>
-        <v>9762.9333333333325</v>
+        <f t="shared" si="121"/>
+        <v>9767.9333333333325</v>
       </c>
       <c r="P142" s="234">
-        <f t="shared" si="120"/>
-        <v>10515.433333333332</v>
+        <f t="shared" si="121"/>
+        <v>10525.433333333332</v>
       </c>
       <c r="Q142" s="234">
-        <f t="shared" si="120"/>
-        <v>10515.433333333332</v>
+        <f t="shared" si="121"/>
+        <v>10525.433333333332</v>
       </c>
       <c r="R142" s="234">
-        <f t="shared" si="120"/>
-        <v>10515.433333333332</v>
+        <f t="shared" si="121"/>
+        <v>10525.433333333332</v>
       </c>
       <c r="S142" s="234">
-        <f t="shared" si="120"/>
-        <v>10565.433333333332</v>
+        <f t="shared" si="121"/>
+        <v>10575.433333333332</v>
       </c>
       <c r="T142" s="234">
-        <f t="shared" si="120"/>
-        <v>10565.433333333332</v>
+        <f t="shared" si="121"/>
+        <v>10575.433333333332</v>
       </c>
       <c r="U142" s="234">
-        <f t="shared" si="120"/>
-        <v>10941.683333333332</v>
+        <f t="shared" si="121"/>
+        <v>10954.183333333332</v>
       </c>
       <c r="V142" s="234">
-        <f t="shared" si="120"/>
-        <v>10941.683333333332</v>
+        <f t="shared" si="121"/>
+        <v>10954.183333333332</v>
       </c>
       <c r="W142" s="234">
-        <f t="shared" si="120"/>
-        <v>10941.683333333332</v>
+        <f t="shared" si="121"/>
+        <v>10954.183333333332</v>
       </c>
       <c r="X142" s="234">
-        <f t="shared" si="120"/>
-        <v>10941.683333333332</v>
+        <f t="shared" si="121"/>
+        <v>10954.183333333332</v>
       </c>
       <c r="Y142" s="234">
-        <f t="shared" si="120"/>
-        <v>10991.683333333332</v>
+        <f t="shared" si="121"/>
+        <v>11004.183333333332</v>
       </c>
       <c r="Z142" s="234">
-        <f t="shared" si="120"/>
-        <v>10991.683333333332</v>
+        <f t="shared" si="121"/>
+        <v>11004.183333333332</v>
       </c>
       <c r="AA142" s="234">
-        <f t="shared" si="120"/>
-        <v>34047.45416666667</v>
+        <f t="shared" si="121"/>
+        <v>34078.70416666667</v>
       </c>
       <c r="AB142" s="234">
-        <f t="shared" si="120"/>
-        <v>34097.45416666667</v>
+        <f t="shared" si="121"/>
+        <v>34128.70416666667</v>
       </c>
       <c r="AC142" s="234">
-        <f t="shared" si="120"/>
-        <v>34097.45416666667</v>
+        <f t="shared" si="121"/>
+        <v>34128.70416666667</v>
       </c>
       <c r="AD142" s="234">
-        <f t="shared" si="120"/>
-        <v>34097.45416666667</v>
+        <f t="shared" si="121"/>
+        <v>34128.70416666667</v>
       </c>
       <c r="AE142" s="234">
-        <f t="shared" si="120"/>
-        <v>34097.45416666667</v>
+        <f t="shared" si="121"/>
+        <v>34128.70416666667</v>
       </c>
       <c r="AF142" s="234">
-        <f t="shared" si="120"/>
-        <v>34097.45416666667</v>
+        <f t="shared" si="121"/>
+        <v>34128.70416666667</v>
       </c>
       <c r="AG142" s="234">
-        <f t="shared" si="120"/>
-        <v>36549.01666666667</v>
+        <f t="shared" si="121"/>
+        <v>36595.89166666667</v>
       </c>
       <c r="AH142" s="234">
-        <f t="shared" si="120"/>
-        <v>38879.01666666667</v>
+        <f t="shared" si="121"/>
+        <v>38925.89166666667</v>
       </c>
       <c r="AI142" s="234">
-        <f t="shared" ref="AI142:BJ142" si="121">AI135+AI90+AI86+AI80+AI76+AI73</f>
-        <v>38879.01666666667</v>
+        <f t="shared" ref="AI142:BJ142" si="122">AI135+AI90+AI86+AI80+AI76+AI73</f>
+        <v>38925.89166666667</v>
       </c>
       <c r="AJ142" s="234">
-        <f t="shared" si="121"/>
-        <v>38879.01666666667</v>
+        <f t="shared" si="122"/>
+        <v>38925.89166666667</v>
       </c>
       <c r="AK142" s="234">
-        <f t="shared" si="121"/>
-        <v>38879.01666666667</v>
+        <f t="shared" si="122"/>
+        <v>38925.89166666667</v>
       </c>
       <c r="AL142" s="234">
-        <f t="shared" si="121"/>
-        <v>38879.01666666667</v>
+        <f t="shared" si="122"/>
+        <v>38925.89166666667</v>
       </c>
       <c r="AM142" s="234">
-        <f t="shared" si="121"/>
-        <v>68420.581250000003</v>
+        <f t="shared" si="122"/>
+        <v>68490.893750000003</v>
       </c>
       <c r="AN142" s="234">
-        <f t="shared" si="121"/>
-        <v>68420.581250000003</v>
+        <f t="shared" si="122"/>
+        <v>68490.893750000003</v>
       </c>
       <c r="AO142" s="234">
-        <f t="shared" si="121"/>
-        <v>68420.581250000003</v>
+        <f t="shared" si="122"/>
+        <v>68490.893750000003</v>
       </c>
       <c r="AP142" s="234">
-        <f t="shared" si="121"/>
-        <v>68420.581250000003</v>
+        <f t="shared" si="122"/>
+        <v>68490.893750000003</v>
       </c>
       <c r="AQ142" s="234">
-        <f t="shared" si="121"/>
-        <v>68420.581250000003</v>
+        <f t="shared" si="122"/>
+        <v>68490.893750000003</v>
       </c>
       <c r="AR142" s="234">
-        <f t="shared" si="121"/>
-        <v>68420.581250000003</v>
+        <f t="shared" si="122"/>
+        <v>68490.893750000003</v>
       </c>
       <c r="AS142" s="234">
-        <f t="shared" si="121"/>
-        <v>73711.596875000003</v>
+        <f t="shared" si="122"/>
+        <v>73817.065625000003</v>
       </c>
       <c r="AT142" s="234">
-        <f t="shared" si="121"/>
-        <v>73711.596875000003</v>
+        <f t="shared" si="122"/>
+        <v>73817.065625000003</v>
       </c>
       <c r="AU142" s="234">
-        <f t="shared" si="121"/>
-        <v>73761.596875000003</v>
+        <f t="shared" si="122"/>
+        <v>73867.065625000003</v>
       </c>
       <c r="AV142" s="234">
-        <f t="shared" si="121"/>
-        <v>73761.596875000003</v>
+        <f t="shared" si="122"/>
+        <v>73867.065625000003</v>
       </c>
       <c r="AW142" s="234">
-        <f t="shared" si="121"/>
-        <v>73761.596875000003</v>
+        <f t="shared" si="122"/>
+        <v>73867.065625000003</v>
       </c>
       <c r="AX142" s="234">
-        <f t="shared" si="121"/>
-        <v>73761.596875000003</v>
+        <f t="shared" si="122"/>
+        <v>73867.065625000003</v>
       </c>
       <c r="AY142" s="234">
-        <f t="shared" si="121"/>
-        <v>122427.5203125</v>
+        <f t="shared" si="122"/>
+        <v>122585.7234375</v>
       </c>
       <c r="AZ142" s="234">
-        <f t="shared" si="121"/>
-        <v>122427.5203125</v>
+        <f t="shared" si="122"/>
+        <v>122585.7234375</v>
       </c>
       <c r="BA142" s="234">
-        <f t="shared" si="121"/>
-        <v>122477.5203125</v>
+        <f t="shared" si="122"/>
+        <v>122635.7234375</v>
       </c>
       <c r="BB142" s="234">
-        <f t="shared" si="121"/>
-        <v>122477.5203125</v>
+        <f t="shared" si="122"/>
+        <v>122635.7234375</v>
       </c>
       <c r="BC142" s="234">
-        <f t="shared" si="121"/>
-        <v>122477.5203125</v>
+        <f t="shared" si="122"/>
+        <v>122635.7234375</v>
       </c>
       <c r="BD142" s="234">
-        <f t="shared" si="121"/>
-        <v>122477.5203125</v>
+        <f t="shared" si="122"/>
+        <v>122635.7234375</v>
       </c>
       <c r="BE142" s="234">
-        <f t="shared" si="121"/>
-        <v>134382.30546875001</v>
+        <f t="shared" si="122"/>
+        <v>134619.61015625001</v>
       </c>
       <c r="BF142" s="234">
-        <f t="shared" si="121"/>
-        <v>134432.30546875001</v>
+        <f t="shared" si="122"/>
+        <v>134669.61015625001</v>
       </c>
       <c r="BG142" s="234">
-        <f t="shared" si="121"/>
-        <v>134432.30546875001</v>
+        <f t="shared" si="122"/>
+        <v>134669.61015625001</v>
       </c>
       <c r="BH142" s="234">
-        <f t="shared" si="121"/>
-        <v>134432.30546875001</v>
+        <f t="shared" si="122"/>
+        <v>134669.61015625001</v>
       </c>
       <c r="BI142" s="234">
-        <f t="shared" si="121"/>
-        <v>134432.30546875001</v>
+        <f t="shared" si="122"/>
+        <v>134669.61015625001</v>
       </c>
       <c r="BJ142" s="234">
-        <f t="shared" si="121"/>
-        <v>134432.30546875001</v>
+        <f t="shared" si="122"/>
+        <v>134669.61015625001</v>
       </c>
       <c r="BK142" s="170">
         <f>SUM(BK135,BK90,BK86,BK80,BK76,BK73)</f>
-        <v>83049.599999999977</v>
+        <v>84225.224999999977</v>
       </c>
       <c r="BL142" s="170">
         <f>SUM(BL135,BL90,BL86,BL80,BL76,BL73)</f>
-        <v>128190.19999999998</v>
+        <v>128320.19999999998</v>
       </c>
       <c r="BM142" s="170">
         <f>SUM(BM135,BM90,BM86,BM80,BM76,BM73)</f>
-        <v>435478.82500000007</v>
+        <v>435947.57500000007</v>
       </c>
       <c r="BN142" s="170">
         <f>SUM(BN135,BN90,BN86,BN80,BN76,BN73)</f>
-        <v>852993.06874999986</v>
+        <v>854047.75624999986</v>
       </c>
       <c r="BO142" s="170">
         <f>SUM(BO135,BO90,BO86,BO80,BO76,BO73)</f>
-        <v>1541308.9546874999</v>
+        <v>1543682.0015624999</v>
       </c>
     </row>
     <row r="143" spans="1:67" x14ac:dyDescent="0.25">
@@ -48347,243 +48629,243 @@
         <v>2217</v>
       </c>
       <c r="C145" s="244">
-        <f t="shared" ref="C145:AH145" si="122">C70</f>
+        <f t="shared" ref="C145:AH145" si="123">C70</f>
         <v>3600</v>
       </c>
       <c r="D145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>5400</v>
       </c>
       <c r="E145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7200</v>
       </c>
       <c r="F145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7200</v>
       </c>
       <c r="G145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7200</v>
       </c>
       <c r="H145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7200</v>
       </c>
       <c r="I145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>10800</v>
       </c>
       <c r="J145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>10800</v>
       </c>
       <c r="K145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>10800</v>
       </c>
       <c r="L145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>10800</v>
       </c>
       <c r="M145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>10800</v>
       </c>
       <c r="N145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>10800</v>
       </c>
       <c r="O145" s="245">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7200</v>
       </c>
       <c r="P145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>14400</v>
       </c>
       <c r="Q145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>14400</v>
       </c>
       <c r="R145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>14400</v>
       </c>
       <c r="S145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>14400</v>
       </c>
       <c r="T145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>14400</v>
       </c>
       <c r="U145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>18000</v>
       </c>
       <c r="V145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>18000</v>
       </c>
       <c r="W145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>18000</v>
       </c>
       <c r="X145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>18000</v>
       </c>
       <c r="Y145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>18000</v>
       </c>
       <c r="Z145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>18000</v>
       </c>
       <c r="AA145" s="245">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>45000</v>
       </c>
       <c r="AB145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>45000</v>
       </c>
       <c r="AC145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>45000</v>
       </c>
       <c r="AD145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>45000</v>
       </c>
       <c r="AE145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>45000</v>
       </c>
       <c r="AF145" s="244">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>45000</v>
       </c>
       <c r="AG145" s="244">
-        <f t="shared" si="122"/>
-        <v>67500</v>
-      </c>
-      <c r="AH145" s="244">
-        <f t="shared" si="122"/>
-        <v>67500</v>
-      </c>
-      <c r="AI145" s="244">
-        <f t="shared" ref="AI145:BJ145" si="123">AI70</f>
-        <v>67500</v>
-      </c>
-      <c r="AJ145" s="244">
         <f t="shared" si="123"/>
         <v>67500</v>
       </c>
-      <c r="AK145" s="244">
+      <c r="AH145" s="244">
         <f t="shared" si="123"/>
         <v>67500</v>
       </c>
+      <c r="AI145" s="244">
+        <f t="shared" ref="AI145:BJ145" si="124">AI70</f>
+        <v>67500</v>
+      </c>
+      <c r="AJ145" s="244">
+        <f t="shared" si="124"/>
+        <v>67500</v>
+      </c>
+      <c r="AK145" s="244">
+        <f t="shared" si="124"/>
+        <v>67500</v>
+      </c>
       <c r="AL145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>67500</v>
       </c>
       <c r="AM145" s="245">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>101250</v>
       </c>
       <c r="AN145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>101250</v>
       </c>
       <c r="AO145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>101250</v>
       </c>
       <c r="AP145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>101250</v>
       </c>
       <c r="AQ145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>101250</v>
       </c>
       <c r="AR145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>101250</v>
       </c>
       <c r="AS145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>151875</v>
       </c>
       <c r="AT145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>151875</v>
       </c>
       <c r="AU145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>151875</v>
       </c>
       <c r="AV145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>151875</v>
       </c>
       <c r="AW145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>151875</v>
       </c>
       <c r="AX145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>151875</v>
       </c>
       <c r="AY145" s="245">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>227812.5</v>
       </c>
       <c r="AZ145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>227812.5</v>
       </c>
       <c r="BA145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>227812.5</v>
       </c>
       <c r="BB145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>227812.5</v>
       </c>
       <c r="BC145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>227812.5</v>
       </c>
       <c r="BD145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>227812.5</v>
       </c>
       <c r="BE145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>341718.75</v>
       </c>
       <c r="BF145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>341718.75</v>
       </c>
       <c r="BG145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>341718.75</v>
       </c>
       <c r="BH145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>341718.75</v>
       </c>
       <c r="BI145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>341718.75</v>
       </c>
       <c r="BJ145" s="244">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>341718.75</v>
       </c>
       <c r="BK145" s="174">
@@ -48612,243 +48894,243 @@
         <v>2218</v>
       </c>
       <c r="C146" s="127">
-        <f t="shared" ref="C146:AH146" si="124">SUM(C74:C75)</f>
+        <f t="shared" ref="C146:AH146" si="125">SUM(C74:C75)</f>
         <v>360</v>
       </c>
       <c r="D146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>540</v>
       </c>
       <c r="E146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>720</v>
       </c>
       <c r="F146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>720</v>
       </c>
       <c r="G146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>720</v>
       </c>
       <c r="H146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>720</v>
       </c>
       <c r="I146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1080</v>
       </c>
       <c r="J146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1080</v>
       </c>
       <c r="K146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1080</v>
       </c>
       <c r="L146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1080</v>
       </c>
       <c r="M146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1080</v>
       </c>
       <c r="N146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1080</v>
       </c>
       <c r="O146" s="176">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>720</v>
       </c>
       <c r="P146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1440</v>
       </c>
       <c r="Q146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1440</v>
       </c>
       <c r="R146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1440</v>
       </c>
       <c r="S146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1440</v>
       </c>
       <c r="T146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1440</v>
       </c>
       <c r="U146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1800</v>
       </c>
       <c r="V146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1800</v>
       </c>
       <c r="W146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1800</v>
       </c>
       <c r="X146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1800</v>
       </c>
       <c r="Y146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1800</v>
       </c>
       <c r="Z146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1800</v>
       </c>
       <c r="AA146" s="176">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>4500</v>
       </c>
       <c r="AB146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>4500</v>
       </c>
       <c r="AC146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>4500</v>
       </c>
       <c r="AD146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>4500</v>
       </c>
       <c r="AE146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>4500</v>
       </c>
       <c r="AF146" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>4500</v>
       </c>
       <c r="AG146" s="127">
-        <f t="shared" si="124"/>
-        <v>6750</v>
-      </c>
-      <c r="AH146" s="127">
-        <f t="shared" si="124"/>
-        <v>6750</v>
-      </c>
-      <c r="AI146" s="127">
-        <f t="shared" ref="AI146:BJ146" si="125">SUM(AI74:AI75)</f>
-        <v>6750</v>
-      </c>
-      <c r="AJ146" s="127">
         <f t="shared" si="125"/>
         <v>6750</v>
       </c>
-      <c r="AK146" s="127">
+      <c r="AH146" s="127">
         <f t="shared" si="125"/>
         <v>6750</v>
       </c>
+      <c r="AI146" s="127">
+        <f t="shared" ref="AI146:BJ146" si="126">SUM(AI74:AI75)</f>
+        <v>6750</v>
+      </c>
+      <c r="AJ146" s="127">
+        <f t="shared" si="126"/>
+        <v>6750</v>
+      </c>
+      <c r="AK146" s="127">
+        <f t="shared" si="126"/>
+        <v>6750</v>
+      </c>
       <c r="AL146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>6750</v>
       </c>
       <c r="AM146" s="176">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>10125</v>
       </c>
       <c r="AN146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>10125</v>
       </c>
       <c r="AO146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>10125</v>
       </c>
       <c r="AP146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>10125</v>
       </c>
       <c r="AQ146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>10125</v>
       </c>
       <c r="AR146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>10125</v>
       </c>
       <c r="AS146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>15187.5</v>
       </c>
       <c r="AT146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>15187.5</v>
       </c>
       <c r="AU146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>15187.5</v>
       </c>
       <c r="AV146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>15187.5</v>
       </c>
       <c r="AW146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>15187.5</v>
       </c>
       <c r="AX146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>15187.5</v>
       </c>
       <c r="AY146" s="176">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22781.25</v>
       </c>
       <c r="AZ146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22781.25</v>
       </c>
       <c r="BA146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22781.25</v>
       </c>
       <c r="BB146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22781.25</v>
       </c>
       <c r="BC146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22781.25</v>
       </c>
       <c r="BD146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22781.25</v>
       </c>
       <c r="BE146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>34171.875</v>
       </c>
       <c r="BF146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>34171.875</v>
       </c>
       <c r="BG146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>34171.875</v>
       </c>
       <c r="BH146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>34171.875</v>
       </c>
       <c r="BI146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>34171.875</v>
       </c>
       <c r="BJ146" s="127">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>34171.875</v>
       </c>
       <c r="BK146" s="194">
@@ -48877,243 +49159,243 @@
         <v>2219</v>
       </c>
       <c r="C147" s="244">
-        <f t="shared" ref="C147:AH147" si="126">C145-C146</f>
+        <f t="shared" ref="C147:AH147" si="127">C145-C146</f>
         <v>3240</v>
       </c>
       <c r="D147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4860</v>
       </c>
       <c r="E147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>6480</v>
       </c>
       <c r="F147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>6480</v>
       </c>
       <c r="G147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>6480</v>
       </c>
       <c r="H147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>6480</v>
       </c>
       <c r="I147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9720</v>
       </c>
       <c r="J147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9720</v>
       </c>
       <c r="K147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9720</v>
       </c>
       <c r="L147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9720</v>
       </c>
       <c r="M147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9720</v>
       </c>
       <c r="N147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9720</v>
       </c>
       <c r="O147" s="173">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>6480</v>
       </c>
       <c r="P147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>12960</v>
       </c>
       <c r="Q147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>12960</v>
       </c>
       <c r="R147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>12960</v>
       </c>
       <c r="S147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>12960</v>
       </c>
       <c r="T147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>12960</v>
       </c>
       <c r="U147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>16200</v>
       </c>
       <c r="V147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>16200</v>
       </c>
       <c r="W147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>16200</v>
       </c>
       <c r="X147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>16200</v>
       </c>
       <c r="Y147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>16200</v>
       </c>
       <c r="Z147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>16200</v>
       </c>
       <c r="AA147" s="173">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>40500</v>
       </c>
       <c r="AB147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>40500</v>
       </c>
       <c r="AC147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>40500</v>
       </c>
       <c r="AD147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>40500</v>
       </c>
       <c r="AE147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>40500</v>
       </c>
       <c r="AF147" s="244">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>40500</v>
       </c>
       <c r="AG147" s="244">
-        <f t="shared" si="126"/>
-        <v>60750</v>
-      </c>
-      <c r="AH147" s="244">
-        <f t="shared" si="126"/>
-        <v>60750</v>
-      </c>
-      <c r="AI147" s="244">
-        <f t="shared" ref="AI147:BJ147" si="127">AI145-AI146</f>
-        <v>60750</v>
-      </c>
-      <c r="AJ147" s="244">
         <f t="shared" si="127"/>
         <v>60750</v>
       </c>
-      <c r="AK147" s="244">
+      <c r="AH147" s="244">
         <f t="shared" si="127"/>
         <v>60750</v>
       </c>
+      <c r="AI147" s="244">
+        <f t="shared" ref="AI147:BJ147" si="128">AI145-AI146</f>
+        <v>60750</v>
+      </c>
+      <c r="AJ147" s="244">
+        <f t="shared" si="128"/>
+        <v>60750</v>
+      </c>
+      <c r="AK147" s="244">
+        <f t="shared" si="128"/>
+        <v>60750</v>
+      </c>
       <c r="AL147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>60750</v>
       </c>
       <c r="AM147" s="173">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>91125</v>
       </c>
       <c r="AN147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>91125</v>
       </c>
       <c r="AO147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>91125</v>
       </c>
       <c r="AP147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>91125</v>
       </c>
       <c r="AQ147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>91125</v>
       </c>
       <c r="AR147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>91125</v>
       </c>
       <c r="AS147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>136687.5</v>
       </c>
       <c r="AT147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>136687.5</v>
       </c>
       <c r="AU147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>136687.5</v>
       </c>
       <c r="AV147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>136687.5</v>
       </c>
       <c r="AW147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>136687.5</v>
       </c>
       <c r="AX147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>136687.5</v>
       </c>
       <c r="AY147" s="173">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>205031.25</v>
       </c>
       <c r="AZ147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>205031.25</v>
       </c>
       <c r="BA147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>205031.25</v>
       </c>
       <c r="BB147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>205031.25</v>
       </c>
       <c r="BC147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>205031.25</v>
       </c>
       <c r="BD147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>205031.25</v>
       </c>
       <c r="BE147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>307546.875</v>
       </c>
       <c r="BF147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>307546.875</v>
       </c>
       <c r="BG147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>307546.875</v>
       </c>
       <c r="BH147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>307546.875</v>
       </c>
       <c r="BI147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>307546.875</v>
       </c>
       <c r="BJ147" s="244">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>307546.875</v>
       </c>
       <c r="BK147" s="174">
@@ -49142,264 +49424,264 @@
         <v>2220</v>
       </c>
       <c r="C148" s="127">
-        <f t="shared" ref="C148:AH148" si="128">C142-C73-C135</f>
-        <v>6065.7999999999993</v>
+        <f t="shared" ref="C148:AH148" si="129">C142-C73-C135</f>
+        <v>6175.7999999999993</v>
       </c>
       <c r="D148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6143.9249999999993</v>
       </c>
       <c r="E148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6153.2999999999993</v>
       </c>
       <c r="F148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6153.2999999999993</v>
       </c>
       <c r="G148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6153.2999999999993</v>
       </c>
       <c r="H148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6153.2999999999993</v>
       </c>
       <c r="I148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6172.0499999999993</v>
       </c>
       <c r="J148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6172.0499999999993</v>
       </c>
       <c r="K148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6172.0499999999993</v>
       </c>
       <c r="L148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6172.0499999999993</v>
       </c>
       <c r="M148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6172.0499999999993</v>
       </c>
       <c r="N148" s="127">
-        <f t="shared" si="128"/>
-        <v>6065.7999999999993</v>
+        <f t="shared" si="129"/>
+        <v>6172.0499999999993</v>
       </c>
       <c r="O148" s="176">
-        <f t="shared" si="128"/>
-        <v>9042.9333333333325</v>
+        <f t="shared" si="129"/>
+        <v>9047.9333333333325</v>
       </c>
       <c r="P148" s="127">
-        <f t="shared" si="128"/>
-        <v>9075.4333333333325</v>
+        <f t="shared" si="129"/>
+        <v>9085.4333333333325</v>
       </c>
       <c r="Q148" s="127">
-        <f t="shared" si="128"/>
-        <v>9075.4333333333325</v>
+        <f t="shared" si="129"/>
+        <v>9085.4333333333325</v>
       </c>
       <c r="R148" s="127">
-        <f t="shared" si="128"/>
-        <v>9075.4333333333325</v>
+        <f t="shared" si="129"/>
+        <v>9085.4333333333325</v>
       </c>
       <c r="S148" s="127">
-        <f t="shared" si="128"/>
-        <v>9125.4333333333325</v>
+        <f t="shared" si="129"/>
+        <v>9135.4333333333325</v>
       </c>
       <c r="T148" s="127">
-        <f t="shared" si="128"/>
-        <v>9125.4333333333325</v>
+        <f t="shared" si="129"/>
+        <v>9135.4333333333325</v>
       </c>
       <c r="U148" s="127">
-        <f t="shared" si="128"/>
-        <v>9141.6833333333325</v>
+        <f t="shared" si="129"/>
+        <v>9154.1833333333325</v>
       </c>
       <c r="V148" s="127">
-        <f t="shared" si="128"/>
-        <v>9141.6833333333325</v>
+        <f t="shared" si="129"/>
+        <v>9154.1833333333325</v>
       </c>
       <c r="W148" s="127">
-        <f t="shared" si="128"/>
-        <v>9141.6833333333325</v>
+        <f t="shared" si="129"/>
+        <v>9154.1833333333325</v>
       </c>
       <c r="X148" s="127">
-        <f t="shared" si="128"/>
-        <v>9141.6833333333325</v>
+        <f t="shared" si="129"/>
+        <v>9154.1833333333325</v>
       </c>
       <c r="Y148" s="127">
-        <f t="shared" si="128"/>
-        <v>9191.6833333333325</v>
+        <f t="shared" si="129"/>
+        <v>9204.1833333333325</v>
       </c>
       <c r="Z148" s="127">
-        <f t="shared" si="128"/>
-        <v>9191.6833333333325</v>
+        <f t="shared" si="129"/>
+        <v>9204.1833333333325</v>
       </c>
       <c r="AA148" s="176">
-        <f t="shared" si="128"/>
-        <v>29547.45416666667</v>
+        <f t="shared" si="129"/>
+        <v>29578.70416666667</v>
       </c>
       <c r="AB148" s="127">
-        <f t="shared" si="128"/>
-        <v>29597.45416666667</v>
+        <f t="shared" si="129"/>
+        <v>29628.70416666667</v>
       </c>
       <c r="AC148" s="127">
-        <f t="shared" si="128"/>
-        <v>29597.45416666667</v>
+        <f t="shared" si="129"/>
+        <v>29628.70416666667</v>
       </c>
       <c r="AD148" s="127">
-        <f t="shared" si="128"/>
-        <v>29597.45416666667</v>
+        <f t="shared" si="129"/>
+        <v>29628.70416666667</v>
       </c>
       <c r="AE148" s="127">
-        <f t="shared" si="128"/>
-        <v>29597.45416666667</v>
+        <f t="shared" si="129"/>
+        <v>29628.70416666667</v>
       </c>
       <c r="AF148" s="127">
-        <f t="shared" si="128"/>
-        <v>29597.45416666667</v>
+        <f t="shared" si="129"/>
+        <v>29628.70416666667</v>
       </c>
       <c r="AG148" s="127">
-        <f t="shared" si="128"/>
-        <v>29799.01666666667</v>
+        <f t="shared" si="129"/>
+        <v>29845.89166666667</v>
       </c>
       <c r="AH148" s="127">
-        <f t="shared" si="128"/>
-        <v>32129.01666666667</v>
+        <f t="shared" si="129"/>
+        <v>32175.89166666667</v>
       </c>
       <c r="AI148" s="127">
-        <f t="shared" ref="AI148:BJ148" si="129">AI142-AI73-AI135</f>
-        <v>32129.01666666667</v>
+        <f t="shared" ref="AI148:BJ148" si="130">AI142-AI73-AI135</f>
+        <v>32175.89166666667</v>
       </c>
       <c r="AJ148" s="127">
-        <f t="shared" si="129"/>
-        <v>32129.01666666667</v>
+        <f t="shared" si="130"/>
+        <v>32175.89166666667</v>
       </c>
       <c r="AK148" s="127">
-        <f t="shared" si="129"/>
-        <v>32129.01666666667</v>
+        <f t="shared" si="130"/>
+        <v>32175.89166666667</v>
       </c>
       <c r="AL148" s="127">
-        <f t="shared" si="129"/>
-        <v>32129.01666666667</v>
+        <f t="shared" si="130"/>
+        <v>32175.89166666667</v>
       </c>
       <c r="AM148" s="176">
-        <f t="shared" si="129"/>
-        <v>58295.581250000003</v>
+        <f t="shared" si="130"/>
+        <v>58365.893750000003</v>
       </c>
       <c r="AN148" s="127">
-        <f t="shared" si="129"/>
-        <v>58295.581250000003</v>
+        <f t="shared" si="130"/>
+        <v>58365.893750000003</v>
       </c>
       <c r="AO148" s="127">
-        <f t="shared" si="129"/>
-        <v>58295.581250000003</v>
+        <f t="shared" si="130"/>
+        <v>58365.893750000003</v>
       </c>
       <c r="AP148" s="127">
-        <f t="shared" si="129"/>
-        <v>58295.581250000003</v>
+        <f t="shared" si="130"/>
+        <v>58365.893750000003</v>
       </c>
       <c r="AQ148" s="127">
-        <f t="shared" si="129"/>
-        <v>58295.581250000003</v>
+        <f t="shared" si="130"/>
+        <v>58365.893750000003</v>
       </c>
       <c r="AR148" s="127">
-        <f t="shared" si="129"/>
-        <v>58295.581250000003</v>
+        <f t="shared" si="130"/>
+        <v>58365.893750000003</v>
       </c>
       <c r="AS148" s="127">
-        <f t="shared" si="129"/>
-        <v>58524.096875000003</v>
+        <f t="shared" si="130"/>
+        <v>58629.565625000003</v>
       </c>
       <c r="AT148" s="127">
-        <f t="shared" si="129"/>
-        <v>58524.096875000003</v>
+        <f t="shared" si="130"/>
+        <v>58629.565625000003</v>
       </c>
       <c r="AU148" s="127">
-        <f t="shared" si="129"/>
-        <v>58574.096875000003</v>
+        <f t="shared" si="130"/>
+        <v>58679.565625000003</v>
       </c>
       <c r="AV148" s="127">
-        <f t="shared" si="129"/>
-        <v>58574.096875000003</v>
+        <f t="shared" si="130"/>
+        <v>58679.565625000003</v>
       </c>
       <c r="AW148" s="127">
-        <f t="shared" si="129"/>
-        <v>58574.096875000003</v>
+        <f t="shared" si="130"/>
+        <v>58679.565625000003</v>
       </c>
       <c r="AX148" s="127">
-        <f t="shared" si="129"/>
-        <v>58574.096875000003</v>
+        <f t="shared" si="130"/>
+        <v>58679.565625000003</v>
       </c>
       <c r="AY148" s="176">
-        <f t="shared" si="129"/>
-        <v>99646.270312499997</v>
+        <f t="shared" si="130"/>
+        <v>99804.473437499997</v>
       </c>
       <c r="AZ148" s="127">
-        <f t="shared" si="129"/>
-        <v>99646.270312499997</v>
+        <f t="shared" si="130"/>
+        <v>99804.473437499997</v>
       </c>
       <c r="BA148" s="127">
-        <f t="shared" si="129"/>
-        <v>99696.270312499997</v>
+        <f t="shared" si="130"/>
+        <v>99854.473437499997</v>
       </c>
       <c r="BB148" s="127">
-        <f t="shared" si="129"/>
-        <v>99696.270312499997</v>
+        <f t="shared" si="130"/>
+        <v>99854.473437499997</v>
       </c>
       <c r="BC148" s="127">
-        <f t="shared" si="129"/>
-        <v>99696.270312499997</v>
+        <f t="shared" si="130"/>
+        <v>99854.473437499997</v>
       </c>
       <c r="BD148" s="127">
-        <f t="shared" si="129"/>
-        <v>99696.270312499997</v>
+        <f t="shared" si="130"/>
+        <v>99854.473437499997</v>
       </c>
       <c r="BE148" s="127">
-        <f t="shared" si="129"/>
-        <v>100210.43046875001</v>
+        <f t="shared" si="130"/>
+        <v>100447.73515625001</v>
       </c>
       <c r="BF148" s="127">
-        <f t="shared" si="129"/>
-        <v>100260.43046875001</v>
+        <f t="shared" si="130"/>
+        <v>100497.73515625001</v>
       </c>
       <c r="BG148" s="127">
-        <f t="shared" si="129"/>
-        <v>100260.43046875001</v>
+        <f t="shared" si="130"/>
+        <v>100497.73515625001</v>
       </c>
       <c r="BH148" s="127">
-        <f t="shared" si="129"/>
-        <v>100260.43046875001</v>
+        <f t="shared" si="130"/>
+        <v>100497.73515625001</v>
       </c>
       <c r="BI148" s="127">
-        <f t="shared" si="129"/>
-        <v>100260.43046875001</v>
+        <f t="shared" si="130"/>
+        <v>100497.73515625001</v>
       </c>
       <c r="BJ148" s="127">
-        <f t="shared" si="129"/>
-        <v>100260.43046875001</v>
+        <f t="shared" si="130"/>
+        <v>100497.73515625001</v>
       </c>
       <c r="BK148" s="194">
         <f>SUM(C148:N148)</f>
-        <v>72789.600000000006</v>
+        <v>73965.225000000006</v>
       </c>
       <c r="BL148" s="194">
         <f>SUM(O148:Z148)</f>
-        <v>109470.2</v>
+        <v>109600.2</v>
       </c>
       <c r="BM148" s="194">
         <f>SUM(AA148:AL148)</f>
-        <v>367978.82500000001</v>
+        <v>368447.57500000001</v>
       </c>
       <c r="BN148" s="194">
         <f>SUM(AM148:AX148)</f>
-        <v>701118.06875000009</v>
+        <v>702172.75625000009</v>
       </c>
       <c r="BO148" s="194">
         <f>SUM(AY148:BJ148)</f>
-        <v>1199590.2046874997</v>
+        <v>1201963.2515624997</v>
       </c>
     </row>
     <row r="149" spans="1:67" x14ac:dyDescent="0.25">
@@ -49407,243 +49689,243 @@
         <v>2221</v>
       </c>
       <c r="C149" s="127">
-        <f t="shared" ref="C149:AH149" si="130">C135</f>
+        <f t="shared" ref="C149:AH149" si="131">C135</f>
         <v>0</v>
       </c>
       <c r="D149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="E149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="F149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="G149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="I149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="J149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="K149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="L149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="M149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="N149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="O149" s="176">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="Q149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="S149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="T149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="U149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="V149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="W149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="X149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="Y149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="Z149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AA149" s="176">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AC149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AD149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AE149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AF149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AG149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AH149" s="127">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AI149" s="127">
-        <f t="shared" ref="AI149:BJ149" si="131">AI135</f>
+        <f t="shared" ref="AI149:BJ149" si="132">AI135</f>
         <v>0</v>
       </c>
       <c r="AJ149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AK149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AL149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AM149" s="176">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AN149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AO149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AP149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AQ149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AR149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AS149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AT149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AU149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AV149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AW149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AX149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AY149" s="176">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AZ149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BA149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BB149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BC149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BD149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BE149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BF149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BG149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BH149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BI149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BJ149" s="127">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BK149" s="194">
@@ -49673,264 +49955,264 @@
       </c>
       <c r="B150" s="196"/>
       <c r="C150" s="249">
-        <f t="shared" ref="C150:AH150" si="132">C145-C146-C148-C149</f>
-        <v>-2825.7999999999993</v>
+        <f t="shared" ref="C150:AH150" si="133">C145-C146-C148-C149</f>
+        <v>-2935.7999999999993</v>
       </c>
       <c r="D150" s="249">
-        <f t="shared" si="132"/>
-        <v>-1205.7999999999993</v>
+        <f t="shared" si="133"/>
+        <v>-1283.9249999999993</v>
       </c>
       <c r="E150" s="249">
-        <f t="shared" si="132"/>
-        <v>414.20000000000073</v>
+        <f t="shared" si="133"/>
+        <v>326.70000000000073</v>
       </c>
       <c r="F150" s="249">
-        <f t="shared" si="132"/>
-        <v>414.20000000000073</v>
+        <f t="shared" si="133"/>
+        <v>326.70000000000073</v>
       </c>
       <c r="G150" s="249">
-        <f t="shared" si="132"/>
-        <v>414.20000000000073</v>
+        <f t="shared" si="133"/>
+        <v>326.70000000000073</v>
       </c>
       <c r="H150" s="249">
-        <f t="shared" si="132"/>
-        <v>414.20000000000073</v>
+        <f t="shared" si="133"/>
+        <v>326.70000000000073</v>
       </c>
       <c r="I150" s="249">
-        <f t="shared" si="132"/>
-        <v>3654.2000000000007</v>
+        <f t="shared" si="133"/>
+        <v>3547.9500000000007</v>
       </c>
       <c r="J150" s="249">
-        <f t="shared" si="132"/>
-        <v>3654.2000000000007</v>
+        <f t="shared" si="133"/>
+        <v>3547.9500000000007</v>
       </c>
       <c r="K150" s="249">
-        <f t="shared" si="132"/>
-        <v>3654.2000000000007</v>
+        <f t="shared" si="133"/>
+        <v>3547.9500000000007</v>
       </c>
       <c r="L150" s="249">
-        <f t="shared" si="132"/>
-        <v>3654.2000000000007</v>
+        <f t="shared" si="133"/>
+        <v>3547.9500000000007</v>
       </c>
       <c r="M150" s="249">
-        <f t="shared" si="132"/>
-        <v>3654.2000000000007</v>
+        <f t="shared" si="133"/>
+        <v>3547.9500000000007</v>
       </c>
       <c r="N150" s="249">
-        <f t="shared" si="132"/>
-        <v>3654.2000000000007</v>
+        <f t="shared" si="133"/>
+        <v>3547.9500000000007</v>
       </c>
       <c r="O150" s="250">
-        <f t="shared" si="132"/>
-        <v>-2562.9333333333325</v>
+        <f t="shared" si="133"/>
+        <v>-2567.9333333333325</v>
       </c>
       <c r="P150" s="249">
-        <f t="shared" si="132"/>
-        <v>3884.5666666666675</v>
+        <f t="shared" si="133"/>
+        <v>3874.5666666666675</v>
       </c>
       <c r="Q150" s="249">
-        <f t="shared" si="132"/>
-        <v>3884.5666666666675</v>
+        <f t="shared" si="133"/>
+        <v>3874.5666666666675</v>
       </c>
       <c r="R150" s="249">
-        <f t="shared" si="132"/>
-        <v>3884.5666666666675</v>
+        <f t="shared" si="133"/>
+        <v>3874.5666666666675</v>
       </c>
       <c r="S150" s="249">
-        <f t="shared" si="132"/>
-        <v>3834.5666666666675</v>
+        <f t="shared" si="133"/>
+        <v>3824.5666666666675</v>
       </c>
       <c r="T150" s="249">
-        <f t="shared" si="132"/>
-        <v>3834.5666666666675</v>
+        <f t="shared" si="133"/>
+        <v>3824.5666666666675</v>
       </c>
       <c r="U150" s="249">
-        <f t="shared" si="132"/>
-        <v>7058.3166666666675</v>
+        <f t="shared" si="133"/>
+        <v>7045.8166666666675</v>
       </c>
       <c r="V150" s="249">
-        <f t="shared" si="132"/>
-        <v>7058.3166666666675</v>
+        <f t="shared" si="133"/>
+        <v>7045.8166666666675</v>
       </c>
       <c r="W150" s="249">
-        <f t="shared" si="132"/>
-        <v>7058.3166666666675</v>
+        <f t="shared" si="133"/>
+        <v>7045.8166666666675</v>
       </c>
       <c r="X150" s="249">
-        <f t="shared" si="132"/>
-        <v>7058.3166666666675</v>
+        <f t="shared" si="133"/>
+        <v>7045.8166666666675</v>
       </c>
       <c r="Y150" s="249">
-        <f t="shared" si="132"/>
-        <v>7008.3166666666675</v>
+        <f t="shared" si="133"/>
+        <v>6995.8166666666675</v>
       </c>
       <c r="Z150" s="249">
-        <f t="shared" si="132"/>
-        <v>7008.3166666666675</v>
+        <f t="shared" si="133"/>
+        <v>6995.8166666666675</v>
       </c>
       <c r="AA150" s="250">
-        <f t="shared" si="132"/>
-        <v>10952.54583333333</v>
+        <f t="shared" si="133"/>
+        <v>10921.29583333333</v>
       </c>
       <c r="AB150" s="249">
-        <f t="shared" si="132"/>
-        <v>10902.54583333333</v>
+        <f t="shared" si="133"/>
+        <v>10871.29583333333</v>
       </c>
       <c r="AC150" s="249">
-        <f t="shared" si="132"/>
-        <v>10902.54583333333</v>
+        <f t="shared" si="133"/>
+        <v>10871.29583333333</v>
       </c>
       <c r="AD150" s="249">
-        <f t="shared" si="132"/>
-        <v>10902.54583333333</v>
+        <f t="shared" si="133"/>
+        <v>10871.29583333333</v>
       </c>
       <c r="AE150" s="249">
-        <f t="shared" si="132"/>
-        <v>10902.54583333333</v>
+        <f t="shared" si="133"/>
+        <v>10871.29583333333</v>
       </c>
       <c r="AF150" s="249">
-        <f t="shared" si="132"/>
-        <v>10902.54583333333</v>
+        <f t="shared" si="133"/>
+        <v>10871.29583333333</v>
       </c>
       <c r="AG150" s="249">
-        <f t="shared" si="132"/>
-        <v>30950.98333333333</v>
+        <f t="shared" si="133"/>
+        <v>30904.10833333333</v>
       </c>
       <c r="AH150" s="249">
-        <f t="shared" si="132"/>
-        <v>28620.98333333333</v>
+        <f t="shared" si="133"/>
+        <v>28574.10833333333</v>
       </c>
       <c r="AI150" s="249">
-        <f t="shared" ref="AI150:BJ150" si="133">AI145-AI146-AI148-AI149</f>
-        <v>28620.98333333333</v>
+        <f t="shared" ref="AI150:BJ150" si="134">AI145-AI146-AI148-AI149</f>
+        <v>28574.10833333333</v>
       </c>
       <c r="AJ150" s="249">
-        <f t="shared" si="133"/>
-        <v>28620.98333333333</v>
+        <f t="shared" si="134"/>
+        <v>28574.10833333333</v>
       </c>
       <c r="AK150" s="249">
-        <f t="shared" si="133"/>
-        <v>28620.98333333333</v>
+        <f t="shared" si="134"/>
+        <v>28574.10833333333</v>
       </c>
       <c r="AL150" s="249">
-        <f t="shared" si="133"/>
-        <v>28620.98333333333</v>
+        <f t="shared" si="134"/>
+        <v>28574.10833333333</v>
       </c>
       <c r="AM150" s="250">
-        <f t="shared" si="133"/>
-        <v>32829.418749999997</v>
+        <f t="shared" si="134"/>
+        <v>32759.106249999997</v>
       </c>
       <c r="AN150" s="249">
-        <f t="shared" si="133"/>
-        <v>32829.418749999997</v>
+        <f t="shared" si="134"/>
+        <v>32759.106249999997</v>
       </c>
       <c r="AO150" s="249">
-        <f t="shared" si="133"/>
-        <v>32829.418749999997</v>
+        <f t="shared" si="134"/>
+        <v>32759.106249999997</v>
       </c>
       <c r="AP150" s="249">
-        <f t="shared" si="133"/>
-        <v>32829.418749999997</v>
+        <f t="shared" si="134"/>
+        <v>32759.106249999997</v>
       </c>
       <c r="AQ150" s="249">
-        <f t="shared" si="133"/>
-        <v>32829.418749999997</v>
+        <f t="shared" si="134"/>
+        <v>32759.106249999997</v>
       </c>
       <c r="AR150" s="249">
-        <f t="shared" si="133"/>
-        <v>32829.418749999997</v>
+        <f t="shared" si="134"/>
+        <v>32759.106249999997</v>
       </c>
       <c r="AS150" s="249">
-        <f t="shared" si="133"/>
-        <v>78163.403124999997</v>
+        <f t="shared" si="134"/>
+        <v>78057.934374999997</v>
       </c>
       <c r="AT150" s="249">
-        <f t="shared" si="133"/>
-        <v>78163.403124999997</v>
+        <f t="shared" si="134"/>
+        <v>78057.934374999997</v>
       </c>
       <c r="AU150" s="249">
-        <f t="shared" si="133"/>
-        <v>78113.403124999997</v>
+        <f t="shared" si="134"/>
+        <v>78007.934374999997</v>
       </c>
       <c r="AV150" s="249">
-        <f t="shared" si="133"/>
-        <v>78113.403124999997</v>
+        <f t="shared" si="134"/>
+        <v>78007.934374999997</v>
       </c>
       <c r="AW150" s="249">
-        <f t="shared" si="133"/>
-        <v>78113.403124999997</v>
+        <f t="shared" si="134"/>
+        <v>78007.934374999997</v>
       </c>
       <c r="AX150" s="249">
-        <f t="shared" si="133"/>
-        <v>78113.403124999997</v>
+        <f t="shared" si="134"/>
+        <v>78007.934374999997</v>
       </c>
       <c r="AY150" s="250">
-        <f t="shared" si="133"/>
-        <v>105384.9796875</v>
+        <f t="shared" si="134"/>
+        <v>105226.7765625</v>
       </c>
       <c r="AZ150" s="249">
-        <f t="shared" si="133"/>
-        <v>105384.9796875</v>
+        <f t="shared" si="134"/>
+        <v>105226.7765625</v>
       </c>
       <c r="BA150" s="249">
-        <f t="shared" si="133"/>
-        <v>105334.9796875</v>
+        <f t="shared" si="134"/>
+        <v>105176.7765625</v>
       </c>
       <c r="BB150" s="249">
-        <f t="shared" si="133"/>
-        <v>105334.9796875</v>
+        <f t="shared" si="134"/>
+        <v>105176.7765625</v>
       </c>
       <c r="BC150" s="249">
-        <f t="shared" si="133"/>
-        <v>105334.9796875</v>
+        <f t="shared" si="134"/>
+        <v>105176.7765625</v>
       </c>
       <c r="BD150" s="249">
-        <f t="shared" si="133"/>
-        <v>105334.9796875</v>
+        <f t="shared" si="134"/>
+        <v>105176.7765625</v>
       </c>
       <c r="BE150" s="249">
-        <f t="shared" si="133"/>
-        <v>207336.44453124999</v>
+        <f t="shared" si="134"/>
+        <v>207099.13984374999</v>
       </c>
       <c r="BF150" s="249">
-        <f t="shared" si="133"/>
-        <v>207286.44453124999</v>
+        <f t="shared" si="134"/>
+        <v>207049.13984374999</v>
       </c>
       <c r="BG150" s="249">
-        <f t="shared" si="133"/>
-        <v>207286.44453124999</v>
+        <f t="shared" si="134"/>
+        <v>207049.13984374999</v>
       </c>
       <c r="BH150" s="249">
-        <f t="shared" si="133"/>
-        <v>207286.44453124999</v>
+        <f t="shared" si="134"/>
+        <v>207049.13984374999</v>
       </c>
       <c r="BI150" s="249">
-        <f t="shared" si="133"/>
-        <v>207286.44453124999</v>
+        <f t="shared" si="134"/>
+        <v>207049.13984374999</v>
       </c>
       <c r="BJ150" s="249">
-        <f t="shared" si="133"/>
-        <v>207286.44453124999</v>
+        <f t="shared" si="134"/>
+        <v>207049.13984374999</v>
       </c>
       <c r="BK150" s="198">
         <f>BK145-BK146-BK148-BK153-BK149</f>
-        <v>18350.399999999994</v>
+        <v>17174.774999999994</v>
       </c>
       <c r="BL150" s="198">
         <f>BL145-BL146-BL148-BL153-BL149</f>
-        <v>58509.8</v>
+        <v>58379.8</v>
       </c>
       <c r="BM150" s="198">
         <f>BM145-BM146-BM148-BM153-BM149</f>
-        <v>237021.17499999999</v>
+        <v>236552.42499999999</v>
       </c>
       <c r="BN150" s="198">
         <f>BN145-BN146-BN148-BN153-BN149</f>
-        <v>663256.93124999991</v>
+        <v>662202.24374999991</v>
       </c>
       <c r="BO150" s="198">
         <f>BO145-BO146-BO148-BO153-BO149</f>
-        <v>1873378.5453125003</v>
+        <v>1871005.4984375003</v>
       </c>
     </row>
     <row r="151" spans="1:67" x14ac:dyDescent="0.25">
@@ -49939,103 +50221,103 @@
       </c>
       <c r="C151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="D151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="E151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="F151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="G151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="H151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="I151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="J151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="K151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="L151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="M151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="N151" s="230">
         <f>IF($BK$150&lt;0,0,$BK$150*Hypotheses!$B$26/12)</f>
-        <v>212.55879999999993</v>
+        <v>198.94114374999995</v>
       </c>
       <c r="O151" s="251">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="P151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="Q151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="R151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="S151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="T151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="U151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="V151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="W151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="X151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="Y151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="Z151" s="230">
         <f>IF($BL$150&lt;0,0,$BL$150*Hypotheses!$B$26/12)</f>
-        <v>677.73851666666678</v>
+        <v>676.2326833333334</v>
       </c>
       <c r="AA151" s="252">
         <f>IF($BM$150&lt;0,0,$BM$150*Hypotheses!B26/12)</f>
-        <v>2745.4952770833333</v>
+        <v>2740.0655895833333</v>
       </c>
       <c r="AB151" s="230">
         <f>IF($BM$150&lt;0,0,$BM$150*Hypotheses!C26/12)</f>
@@ -50083,119 +50365,119 @@
       </c>
       <c r="AM151" s="252">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AN151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AO151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AP151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AQ151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AR151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AS151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AT151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AU151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AV151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AW151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AX151" s="230">
         <f>IF($BN$150&lt;0,0,$BN$150*Hypotheses!$B$26/12)</f>
-        <v>7682.726120312499</v>
+        <v>7670.509323437499</v>
       </c>
       <c r="AY151" s="252">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="AZ151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BA151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BB151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BC151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BD151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BE151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BF151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BG151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BH151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BI151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BJ151" s="230">
         <f>IF($BO$150&lt;0,0,$BO$150*Hypotheses!$B$26/12)</f>
-        <v>21699.968149869797</v>
+        <v>21672.480356901047</v>
       </c>
       <c r="BK151" s="194">
         <f>SUM(C151:N151)</f>
-        <v>2550.7055999999993</v>
+        <v>2387.2937249999995</v>
       </c>
       <c r="BL151" s="194">
         <f>SUM(O151:Z151)</f>
-        <v>8132.8621999999996</v>
+        <v>8114.7922000000026</v>
       </c>
       <c r="BM151" s="194">
         <f>SUM(AA151:AL151)</f>
-        <v>2745.4952770833333</v>
+        <v>2740.0655895833333</v>
       </c>
       <c r="BN151" s="194">
         <f>SUM(AM151:AX151)</f>
-        <v>92192.713443749977</v>
+        <v>92046.111881249977</v>
       </c>
       <c r="BO151" s="194">
         <f>SUM(AY151:BJ151)</f>
-        <v>260399.61779843751</v>
+        <v>260069.76428281251</v>
       </c>
     </row>
     <row r="152" spans="1:67" x14ac:dyDescent="0.25">
@@ -50205,263 +50487,263 @@
       <c r="B152" s="196"/>
       <c r="C152" s="249">
         <f>C150-C151</f>
-        <v>-3038.3587999999991</v>
+        <v>-3134.7411437499991</v>
       </c>
       <c r="D152" s="249">
-        <f t="shared" ref="D152:AI152" si="134">C152+D150-D151</f>
-        <v>-4456.7175999999981</v>
+        <f t="shared" ref="D152:AI152" si="135">C152+D150-D151</f>
+        <v>-4617.6072874999991</v>
       </c>
       <c r="E152" s="249">
-        <f t="shared" si="134"/>
-        <v>-4255.0763999999972</v>
+        <f t="shared" si="135"/>
+        <v>-4489.8484312499986</v>
       </c>
       <c r="F152" s="249">
-        <f t="shared" si="134"/>
-        <v>-4053.4351999999963</v>
+        <f t="shared" si="135"/>
+        <v>-4362.0895749999981</v>
       </c>
       <c r="G152" s="249">
-        <f t="shared" si="134"/>
-        <v>-3851.7939999999953</v>
+        <f t="shared" si="135"/>
+        <v>-4234.3307187499977</v>
       </c>
       <c r="H152" s="249">
-        <f t="shared" si="134"/>
-        <v>-3650.1527999999944</v>
+        <f t="shared" si="135"/>
+        <v>-4106.5718624999972</v>
       </c>
       <c r="I152" s="249">
-        <f t="shared" si="134"/>
-        <v>-208.51159999999359</v>
+        <f t="shared" si="135"/>
+        <v>-757.56300624999642</v>
       </c>
       <c r="J152" s="249">
-        <f t="shared" si="134"/>
-        <v>3233.1296000000075</v>
+        <f t="shared" si="135"/>
+        <v>2591.4458500000046</v>
       </c>
       <c r="K152" s="249">
-        <f t="shared" si="134"/>
-        <v>6674.7708000000084</v>
+        <f t="shared" si="135"/>
+        <v>5940.4547062500051</v>
       </c>
       <c r="L152" s="249">
-        <f t="shared" si="134"/>
-        <v>10116.412000000009</v>
+        <f t="shared" si="135"/>
+        <v>9289.4635625000064</v>
       </c>
       <c r="M152" s="249">
-        <f t="shared" si="134"/>
-        <v>13558.053200000009</v>
+        <f t="shared" si="135"/>
+        <v>12638.472418750007</v>
       </c>
       <c r="N152" s="249">
-        <f t="shared" si="134"/>
-        <v>16999.694400000011</v>
+        <f t="shared" si="135"/>
+        <v>15987.481275000007</v>
       </c>
       <c r="O152" s="250">
-        <f t="shared" si="134"/>
-        <v>13759.022550000012</v>
+        <f t="shared" si="135"/>
+        <v>12743.315258333341</v>
       </c>
       <c r="P152" s="249">
-        <f t="shared" si="134"/>
-        <v>16965.850700000014</v>
+        <f t="shared" si="135"/>
+        <v>15941.649241666675</v>
       </c>
       <c r="Q152" s="249">
-        <f t="shared" si="134"/>
-        <v>20172.678850000015</v>
+        <f t="shared" si="135"/>
+        <v>19139.983225000011</v>
       </c>
       <c r="R152" s="249">
-        <f t="shared" si="134"/>
-        <v>23379.507000000016</v>
+        <f t="shared" si="135"/>
+        <v>22338.317208333345</v>
       </c>
       <c r="S152" s="249">
-        <f t="shared" si="134"/>
-        <v>26536.335150000017</v>
+        <f t="shared" si="135"/>
+        <v>25486.651191666682</v>
       </c>
       <c r="T152" s="249">
-        <f t="shared" si="134"/>
-        <v>29693.163300000018</v>
+        <f t="shared" si="135"/>
+        <v>28634.98517500002</v>
       </c>
       <c r="U152" s="249">
-        <f t="shared" si="134"/>
-        <v>36073.741450000023</v>
+        <f t="shared" si="135"/>
+        <v>35004.569158333354</v>
       </c>
       <c r="V152" s="249">
-        <f t="shared" si="134"/>
-        <v>42454.319600000024</v>
+        <f t="shared" si="135"/>
+        <v>41374.153141666684</v>
       </c>
       <c r="W152" s="249">
-        <f t="shared" si="134"/>
-        <v>48834.897750000026</v>
+        <f t="shared" si="135"/>
+        <v>47743.737125000014</v>
       </c>
       <c r="X152" s="249">
-        <f t="shared" si="134"/>
-        <v>55215.475900000027</v>
+        <f t="shared" si="135"/>
+        <v>54113.321108333344</v>
       </c>
       <c r="Y152" s="249">
-        <f t="shared" si="134"/>
-        <v>61546.054050000028</v>
+        <f t="shared" si="135"/>
+        <v>60432.905091666675</v>
       </c>
       <c r="Z152" s="249">
-        <f t="shared" si="134"/>
-        <v>67876.632200000036</v>
+        <f t="shared" si="135"/>
+        <v>66752.489075000005</v>
       </c>
       <c r="AA152" s="250">
-        <f t="shared" si="134"/>
-        <v>76083.682756250026</v>
+        <f t="shared" si="135"/>
+        <v>74933.719318749994</v>
       </c>
       <c r="AB152" s="249">
-        <f t="shared" si="134"/>
-        <v>86986.228589583363</v>
+        <f t="shared" si="135"/>
+        <v>85805.015152083331</v>
       </c>
       <c r="AC152" s="249">
-        <f t="shared" si="134"/>
-        <v>97888.7744229167</v>
+        <f t="shared" si="135"/>
+        <v>96676.310985416669</v>
       </c>
       <c r="AD152" s="249">
-        <f t="shared" si="134"/>
-        <v>108791.32025625004</v>
+        <f t="shared" si="135"/>
+        <v>107547.60681875001</v>
       </c>
       <c r="AE152" s="249">
-        <f t="shared" si="134"/>
-        <v>119693.86608958337</v>
+        <f t="shared" si="135"/>
+        <v>118418.90265208334</v>
       </c>
       <c r="AF152" s="249">
-        <f t="shared" si="134"/>
-        <v>130596.41192291671</v>
+        <f t="shared" si="135"/>
+        <v>129290.19848541668</v>
       </c>
       <c r="AG152" s="249">
-        <f t="shared" si="134"/>
-        <v>161547.39525625005</v>
+        <f t="shared" si="135"/>
+        <v>160194.30681875002</v>
       </c>
       <c r="AH152" s="249">
-        <f t="shared" si="134"/>
-        <v>190168.37858958339</v>
+        <f t="shared" si="135"/>
+        <v>188768.41515208335</v>
       </c>
       <c r="AI152" s="249">
-        <f t="shared" si="134"/>
-        <v>218789.36192291672</v>
+        <f t="shared" si="135"/>
+        <v>217342.52348541669</v>
       </c>
       <c r="AJ152" s="249">
-        <f t="shared" ref="AJ152:BJ152" si="135">AI152+AJ150-AJ151</f>
-        <v>247410.34525625006</v>
+        <f t="shared" ref="AJ152:BJ152" si="136">AI152+AJ150-AJ151</f>
+        <v>245916.63181875003</v>
       </c>
       <c r="AK152" s="249">
-        <f t="shared" si="135"/>
-        <v>276031.3285895834</v>
+        <f t="shared" si="136"/>
+        <v>274490.74015208334</v>
       </c>
       <c r="AL152" s="249">
-        <f t="shared" si="135"/>
-        <v>304652.31192291674</v>
+        <f t="shared" si="136"/>
+        <v>303064.84848541667</v>
       </c>
       <c r="AM152" s="250">
-        <f t="shared" si="135"/>
-        <v>329799.00455260422</v>
+        <f t="shared" si="136"/>
+        <v>328153.44541197916</v>
       </c>
       <c r="AN152" s="249">
-        <f t="shared" si="135"/>
-        <v>354945.69718229171</v>
+        <f t="shared" si="136"/>
+        <v>353242.04233854165</v>
       </c>
       <c r="AO152" s="249">
-        <f t="shared" si="135"/>
-        <v>380092.3898119792</v>
+        <f t="shared" si="136"/>
+        <v>378330.63926510414</v>
       </c>
       <c r="AP152" s="249">
-        <f t="shared" si="135"/>
-        <v>405239.08244166669</v>
+        <f t="shared" si="136"/>
+        <v>403419.23619166663</v>
       </c>
       <c r="AQ152" s="249">
-        <f t="shared" si="135"/>
-        <v>430385.77507135418</v>
+        <f t="shared" si="136"/>
+        <v>428507.83311822911</v>
       </c>
       <c r="AR152" s="249">
-        <f t="shared" si="135"/>
-        <v>455532.46770104166</v>
+        <f t="shared" si="136"/>
+        <v>453596.4300447916</v>
       </c>
       <c r="AS152" s="249">
-        <f t="shared" si="135"/>
-        <v>526013.14470572921</v>
+        <f t="shared" si="136"/>
+        <v>523983.85509635409</v>
       </c>
       <c r="AT152" s="249">
-        <f t="shared" si="135"/>
-        <v>596493.8217104167</v>
+        <f t="shared" si="136"/>
+        <v>594371.28014791664</v>
       </c>
       <c r="AU152" s="249">
-        <f t="shared" si="135"/>
-        <v>666924.49871510419</v>
+        <f t="shared" si="136"/>
+        <v>664708.70519947913</v>
       </c>
       <c r="AV152" s="249">
-        <f t="shared" si="135"/>
-        <v>737355.17571979167</v>
+        <f t="shared" si="136"/>
+        <v>735046.13025104161</v>
       </c>
       <c r="AW152" s="249">
-        <f t="shared" si="135"/>
-        <v>807785.85272447916</v>
+        <f t="shared" si="136"/>
+        <v>805383.5553026041</v>
       </c>
       <c r="AX152" s="249">
-        <f t="shared" si="135"/>
-        <v>878216.52972916665</v>
+        <f t="shared" si="136"/>
+        <v>875720.98035416659</v>
       </c>
       <c r="AY152" s="250">
-        <f t="shared" si="135"/>
-        <v>961901.54126679688</v>
+        <f t="shared" si="136"/>
+        <v>959275.27655976557</v>
       </c>
       <c r="AZ152" s="249">
-        <f t="shared" si="135"/>
-        <v>1045586.5528044271</v>
+        <f t="shared" si="136"/>
+        <v>1042829.5727653644</v>
       </c>
       <c r="BA152" s="249">
-        <f t="shared" si="135"/>
-        <v>1129221.5643420573</v>
+        <f t="shared" si="136"/>
+        <v>1126333.8689709634</v>
       </c>
       <c r="BB152" s="249">
-        <f t="shared" si="135"/>
-        <v>1212856.5758796877</v>
+        <f t="shared" si="136"/>
+        <v>1209838.1651765625</v>
       </c>
       <c r="BC152" s="249">
-        <f t="shared" si="135"/>
-        <v>1296491.587417318</v>
+        <f t="shared" si="136"/>
+        <v>1293342.4613821616</v>
       </c>
       <c r="BD152" s="249">
-        <f t="shared" si="135"/>
-        <v>1380126.5989549484</v>
+        <f t="shared" si="136"/>
+        <v>1376846.7575877607</v>
       </c>
       <c r="BE152" s="249">
-        <f t="shared" si="135"/>
-        <v>1565763.0753363287</v>
+        <f t="shared" si="136"/>
+        <v>1562273.4170746098</v>
       </c>
       <c r="BF152" s="249">
-        <f t="shared" si="135"/>
-        <v>1751349.5517177091</v>
+        <f t="shared" si="136"/>
+        <v>1747650.0765614589</v>
       </c>
       <c r="BG152" s="249">
-        <f t="shared" si="135"/>
-        <v>1936936.0280990894</v>
+        <f t="shared" si="136"/>
+        <v>1933026.736048308</v>
       </c>
       <c r="BH152" s="249">
-        <f t="shared" si="135"/>
-        <v>2122522.5044804695</v>
+        <f t="shared" si="136"/>
+        <v>2118403.3955351571</v>
       </c>
       <c r="BI152" s="249">
-        <f t="shared" si="135"/>
-        <v>2308108.9808618496</v>
+        <f t="shared" si="136"/>
+        <v>2303780.0550220059</v>
       </c>
       <c r="BJ152" s="249">
-        <f t="shared" si="135"/>
-        <v>2493695.4572432297</v>
+        <f t="shared" si="136"/>
+        <v>2489156.7145088548</v>
       </c>
       <c r="BK152" s="198">
         <f>BK150-BK151</f>
-        <v>15799.694399999995</v>
+        <v>14787.481274999995</v>
       </c>
       <c r="BL152" s="198">
         <f>BL150-BL151</f>
-        <v>50376.9378</v>
+        <v>50265.007799999999</v>
       </c>
       <c r="BM152" s="198">
         <f>BM150-BM151</f>
-        <v>234275.67972291666</v>
+        <v>233812.35941041666</v>
       </c>
       <c r="BN152" s="198">
         <f>BN150-BN151</f>
-        <v>571064.21780624997</v>
+        <v>570156.13186874997</v>
       </c>
       <c r="BO152" s="198">
         <f>BO150-BO151</f>
-        <v>1612978.9275140627</v>
+        <v>1610935.7341546877</v>
       </c>
     </row>
     <row r="153" spans="1:67" x14ac:dyDescent="0.25">
@@ -50469,243 +50751,243 @@
         <v>2225</v>
       </c>
       <c r="C153" s="253">
-        <f t="shared" ref="C153:AH153" si="136">C19</f>
+        <f t="shared" ref="C153:AH153" si="137">C19</f>
         <v>1200</v>
       </c>
       <c r="D153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="E153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="F153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="G153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="H153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="I153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="J153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="K153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="M153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="N153" s="253">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="O153" s="253">
-        <f t="shared" si="136"/>
-        <v>500</v>
-      </c>
-      <c r="P153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="Q153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="R153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="S153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="T153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="U153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="V153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="W153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="X153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="Y153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="Z153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AA153" s="253">
-        <f t="shared" si="136"/>
-        <v>500</v>
-      </c>
-      <c r="AB153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AC153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AD153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AE153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AF153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AG153" s="253">
-        <f t="shared" si="136"/>
-        <v>2000</v>
-      </c>
-      <c r="AH153" s="253">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AI153" s="253">
-        <f t="shared" ref="AI153:BJ153" si="137">AI19</f>
-        <v>0</v>
-      </c>
-      <c r="AJ153" s="253">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="AK153" s="253">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="AL153" s="253">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="AM153" s="253">
         <f t="shared" si="137"/>
         <v>500</v>
       </c>
-      <c r="AN153" s="253">
+      <c r="P153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AO153" s="253">
+      <c r="Q153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AP153" s="253">
+      <c r="R153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AQ153" s="253">
+      <c r="S153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AR153" s="253">
+      <c r="T153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AS153" s="253">
+      <c r="U153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AT153" s="253">
+      <c r="V153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AU153" s="253">
+      <c r="W153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AV153" s="253">
+      <c r="X153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AW153" s="253">
+      <c r="Y153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AX153" s="253">
+      <c r="Z153" s="253">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="AY153" s="253">
+      <c r="AA153" s="253">
         <f t="shared" si="137"/>
         <v>500</v>
       </c>
+      <c r="AB153" s="253">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="AC153" s="253">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="AD153" s="253">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="AE153" s="253">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="AF153" s="253">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="AG153" s="253">
+        <f t="shared" si="137"/>
+        <v>2000</v>
+      </c>
+      <c r="AH153" s="253">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="AI153" s="253">
+        <f t="shared" ref="AI153:BJ153" si="138">AI19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AK153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AL153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AM153" s="253">
+        <f t="shared" si="138"/>
+        <v>500</v>
+      </c>
+      <c r="AN153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AO153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AP153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AQ153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AR153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AS153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AT153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AU153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AV153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AW153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AX153" s="253">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AY153" s="253">
+        <f t="shared" si="138"/>
+        <v>500</v>
+      </c>
       <c r="AZ153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BA153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BB153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BC153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BD153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BE153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BF153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BG153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BH153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BI153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BJ153" s="253">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BK153" s="254">
@@ -50736,263 +51018,263 @@
       <c r="B154" s="256"/>
       <c r="C154" s="249">
         <f>C152-C153</f>
-        <v>-4238.3587999999991</v>
+        <v>-4334.7411437499995</v>
       </c>
       <c r="D154" s="249">
-        <f t="shared" ref="D154:AI154" si="138">C154+D150-D151-D153</f>
-        <v>-5656.7175999999981</v>
+        <f t="shared" ref="D154:AI154" si="139">C154+D150-D151-D153</f>
+        <v>-5817.6072874999991</v>
       </c>
       <c r="E154" s="249">
-        <f t="shared" si="138"/>
-        <v>-5455.0763999999972</v>
+        <f t="shared" si="139"/>
+        <v>-5689.8484312499986</v>
       </c>
       <c r="F154" s="249">
-        <f t="shared" si="138"/>
-        <v>-5253.4351999999963</v>
+        <f t="shared" si="139"/>
+        <v>-5562.0895749999981</v>
       </c>
       <c r="G154" s="249">
-        <f t="shared" si="138"/>
-        <v>-5051.7939999999953</v>
+        <f t="shared" si="139"/>
+        <v>-5434.3307187499977</v>
       </c>
       <c r="H154" s="249">
-        <f t="shared" si="138"/>
-        <v>-4850.1527999999944</v>
+        <f t="shared" si="139"/>
+        <v>-5306.5718624999972</v>
       </c>
       <c r="I154" s="249">
-        <f t="shared" si="138"/>
-        <v>-1408.5115999999937</v>
+        <f t="shared" si="139"/>
+        <v>-1957.5630062499965</v>
       </c>
       <c r="J154" s="249">
-        <f t="shared" si="138"/>
-        <v>2033.1296000000073</v>
+        <f t="shared" si="139"/>
+        <v>1391.4458500000042</v>
       </c>
       <c r="K154" s="249">
-        <f t="shared" si="138"/>
-        <v>5474.7708000000084</v>
+        <f t="shared" si="139"/>
+        <v>4740.4547062500042</v>
       </c>
       <c r="L154" s="249">
-        <f t="shared" si="138"/>
-        <v>8916.4120000000094</v>
+        <f t="shared" si="139"/>
+        <v>8089.4635625000046</v>
       </c>
       <c r="M154" s="249">
-        <f t="shared" si="138"/>
-        <v>12358.053200000009</v>
+        <f t="shared" si="139"/>
+        <v>11438.472418750005</v>
       </c>
       <c r="N154" s="249">
-        <f t="shared" si="138"/>
-        <v>15799.694400000009</v>
+        <f t="shared" si="139"/>
+        <v>14787.481275000006</v>
       </c>
       <c r="O154" s="250">
-        <f t="shared" si="138"/>
-        <v>12059.022550000011</v>
+        <f t="shared" si="139"/>
+        <v>11043.315258333339</v>
       </c>
       <c r="P154" s="249">
-        <f t="shared" si="138"/>
-        <v>15265.850700000012</v>
+        <f t="shared" si="139"/>
+        <v>14241.649241666673</v>
       </c>
       <c r="Q154" s="249">
-        <f t="shared" si="138"/>
-        <v>18472.678850000011</v>
+        <f t="shared" si="139"/>
+        <v>17439.983225000007</v>
       </c>
       <c r="R154" s="249">
-        <f t="shared" si="138"/>
-        <v>21679.507000000009</v>
+        <f t="shared" si="139"/>
+        <v>20638.317208333345</v>
       </c>
       <c r="S154" s="249">
-        <f t="shared" si="138"/>
-        <v>24836.33515000001</v>
+        <f t="shared" si="139"/>
+        <v>23786.651191666682</v>
       </c>
       <c r="T154" s="249">
-        <f t="shared" si="138"/>
-        <v>27993.163300000011</v>
+        <f t="shared" si="139"/>
+        <v>26934.98517500002</v>
       </c>
       <c r="U154" s="249">
-        <f t="shared" si="138"/>
-        <v>34373.741450000016</v>
+        <f t="shared" si="139"/>
+        <v>33304.569158333354</v>
       </c>
       <c r="V154" s="249">
-        <f t="shared" si="138"/>
-        <v>40754.319600000017</v>
+        <f t="shared" si="139"/>
+        <v>39674.153141666684</v>
       </c>
       <c r="W154" s="249">
-        <f t="shared" si="138"/>
-        <v>47134.897750000018</v>
+        <f t="shared" si="139"/>
+        <v>46043.737125000014</v>
       </c>
       <c r="X154" s="249">
-        <f t="shared" si="138"/>
-        <v>53515.475900000019</v>
+        <f t="shared" si="139"/>
+        <v>52413.321108333344</v>
       </c>
       <c r="Y154" s="249">
-        <f t="shared" si="138"/>
-        <v>59846.054050000021</v>
+        <f t="shared" si="139"/>
+        <v>58732.905091666675</v>
       </c>
       <c r="Z154" s="249">
-        <f t="shared" si="138"/>
-        <v>66176.632200000022</v>
+        <f t="shared" si="139"/>
+        <v>65052.489075000005</v>
       </c>
       <c r="AA154" s="250">
-        <f t="shared" si="138"/>
-        <v>73883.682756250026</v>
+        <f t="shared" si="139"/>
+        <v>72733.719318749994</v>
       </c>
       <c r="AB154" s="249">
-        <f t="shared" si="138"/>
-        <v>84786.228589583363</v>
+        <f t="shared" si="139"/>
+        <v>83605.015152083331</v>
       </c>
       <c r="AC154" s="249">
-        <f t="shared" si="138"/>
-        <v>95688.7744229167</v>
+        <f t="shared" si="139"/>
+        <v>94476.310985416669</v>
       </c>
       <c r="AD154" s="249">
-        <f t="shared" si="138"/>
-        <v>106591.32025625004</v>
+        <f t="shared" si="139"/>
+        <v>105347.60681875001</v>
       </c>
       <c r="AE154" s="249">
-        <f t="shared" si="138"/>
-        <v>117493.86608958337</v>
+        <f t="shared" si="139"/>
+        <v>116218.90265208334</v>
       </c>
       <c r="AF154" s="249">
-        <f t="shared" si="138"/>
-        <v>128396.41192291671</v>
+        <f t="shared" si="139"/>
+        <v>127090.19848541668</v>
       </c>
       <c r="AG154" s="249">
-        <f t="shared" si="138"/>
-        <v>157347.39525625005</v>
+        <f t="shared" si="139"/>
+        <v>155994.30681875002</v>
       </c>
       <c r="AH154" s="249">
-        <f t="shared" si="138"/>
-        <v>185968.37858958339</v>
+        <f t="shared" si="139"/>
+        <v>184568.41515208335</v>
       </c>
       <c r="AI154" s="249">
-        <f t="shared" si="138"/>
-        <v>214589.36192291672</v>
+        <f t="shared" si="139"/>
+        <v>213142.52348541669</v>
       </c>
       <c r="AJ154" s="249">
-        <f t="shared" ref="AJ154:BJ154" si="139">AI154+AJ150-AJ151-AJ153</f>
-        <v>243210.34525625006</v>
+        <f t="shared" ref="AJ154:BJ154" si="140">AI154+AJ150-AJ151-AJ153</f>
+        <v>241716.63181875003</v>
       </c>
       <c r="AK154" s="249">
-        <f t="shared" si="139"/>
-        <v>271831.3285895834</v>
+        <f t="shared" si="140"/>
+        <v>270290.74015208334</v>
       </c>
       <c r="AL154" s="249">
-        <f t="shared" si="139"/>
-        <v>300452.31192291674</v>
+        <f t="shared" si="140"/>
+        <v>298864.84848541667</v>
       </c>
       <c r="AM154" s="250">
-        <f t="shared" si="139"/>
-        <v>325099.00455260422</v>
+        <f t="shared" si="140"/>
+        <v>323453.44541197916</v>
       </c>
       <c r="AN154" s="249">
-        <f t="shared" si="139"/>
-        <v>350245.69718229171</v>
+        <f t="shared" si="140"/>
+        <v>348542.04233854165</v>
       </c>
       <c r="AO154" s="249">
-        <f t="shared" si="139"/>
-        <v>375392.3898119792</v>
+        <f t="shared" si="140"/>
+        <v>373630.63926510414</v>
       </c>
       <c r="AP154" s="249">
-        <f t="shared" si="139"/>
-        <v>400539.08244166669</v>
+        <f t="shared" si="140"/>
+        <v>398719.23619166663</v>
       </c>
       <c r="AQ154" s="249">
-        <f t="shared" si="139"/>
-        <v>425685.77507135418</v>
+        <f t="shared" si="140"/>
+        <v>423807.83311822911</v>
       </c>
       <c r="AR154" s="249">
-        <f t="shared" si="139"/>
-        <v>450832.46770104166</v>
+        <f t="shared" si="140"/>
+        <v>448896.4300447916</v>
       </c>
       <c r="AS154" s="249">
-        <f t="shared" si="139"/>
-        <v>521313.14470572915</v>
+        <f t="shared" si="140"/>
+        <v>519283.85509635409</v>
       </c>
       <c r="AT154" s="249">
-        <f t="shared" si="139"/>
-        <v>591793.8217104167</v>
+        <f t="shared" si="140"/>
+        <v>589671.28014791664</v>
       </c>
       <c r="AU154" s="249">
-        <f t="shared" si="139"/>
-        <v>662224.49871510419</v>
+        <f t="shared" si="140"/>
+        <v>660008.70519947913</v>
       </c>
       <c r="AV154" s="249">
-        <f t="shared" si="139"/>
-        <v>732655.17571979167</v>
+        <f t="shared" si="140"/>
+        <v>730346.13025104161</v>
       </c>
       <c r="AW154" s="249">
-        <f t="shared" si="139"/>
-        <v>803085.85272447916</v>
+        <f t="shared" si="140"/>
+        <v>800683.5553026041</v>
       </c>
       <c r="AX154" s="249">
-        <f t="shared" si="139"/>
-        <v>873516.52972916665</v>
+        <f t="shared" si="140"/>
+        <v>871020.98035416659</v>
       </c>
       <c r="AY154" s="250">
-        <f t="shared" si="139"/>
-        <v>956701.54126679688</v>
+        <f t="shared" si="140"/>
+        <v>954075.27655976557</v>
       </c>
       <c r="AZ154" s="249">
-        <f t="shared" si="139"/>
-        <v>1040386.5528044271</v>
+        <f t="shared" si="140"/>
+        <v>1037629.5727653644</v>
       </c>
       <c r="BA154" s="249">
-        <f t="shared" si="139"/>
-        <v>1124021.5643420573</v>
+        <f t="shared" si="140"/>
+        <v>1121133.8689709634</v>
       </c>
       <c r="BB154" s="249">
-        <f t="shared" si="139"/>
-        <v>1207656.5758796877</v>
+        <f t="shared" si="140"/>
+        <v>1204638.1651765625</v>
       </c>
       <c r="BC154" s="249">
-        <f t="shared" si="139"/>
-        <v>1291291.587417318</v>
+        <f t="shared" si="140"/>
+        <v>1288142.4613821616</v>
       </c>
       <c r="BD154" s="249">
-        <f t="shared" si="139"/>
-        <v>1374926.5989549484</v>
+        <f t="shared" si="140"/>
+        <v>1371646.7575877607</v>
       </c>
       <c r="BE154" s="249">
-        <f t="shared" si="139"/>
-        <v>1560563.0753363287</v>
+        <f t="shared" si="140"/>
+        <v>1557073.4170746098</v>
       </c>
       <c r="BF154" s="249">
-        <f t="shared" si="139"/>
-        <v>1746149.5517177091</v>
+        <f t="shared" si="140"/>
+        <v>1742450.0765614589</v>
       </c>
       <c r="BG154" s="249">
-        <f t="shared" si="139"/>
-        <v>1931736.0280990894</v>
+        <f t="shared" si="140"/>
+        <v>1927826.736048308</v>
       </c>
       <c r="BH154" s="249">
-        <f t="shared" si="139"/>
-        <v>2117322.5044804695</v>
+        <f t="shared" si="140"/>
+        <v>2113203.3955351571</v>
       </c>
       <c r="BI154" s="249">
-        <f t="shared" si="139"/>
-        <v>2302908.9808618496</v>
+        <f t="shared" si="140"/>
+        <v>2298580.0550220059</v>
       </c>
       <c r="BJ154" s="249">
-        <f t="shared" si="139"/>
-        <v>2488495.4572432297</v>
+        <f t="shared" si="140"/>
+        <v>2483956.7145088548</v>
       </c>
       <c r="BK154" s="198">
         <f>BK152-BK153</f>
-        <v>14599.694399999995</v>
+        <v>13587.481274999995</v>
       </c>
       <c r="BL154" s="198">
         <f>BL152-BL153</f>
-        <v>49876.9378</v>
+        <v>49765.007799999999</v>
       </c>
       <c r="BM154" s="198">
         <f>BM152-BM153</f>
-        <v>231775.67972291666</v>
+        <v>231312.35941041666</v>
       </c>
       <c r="BN154" s="198">
         <f>BN152-BN153</f>
-        <v>568564.21780624997</v>
+        <v>567656.13186874997</v>
       </c>
       <c r="BO154" s="198">
         <f>BO152-BO153</f>
-        <v>1610478.9275140627</v>
+        <v>1608435.7341546877</v>
       </c>
     </row>
     <row r="155" spans="1:67" x14ac:dyDescent="0.25">
@@ -51203,112 +51485,112 @@
       <c r="BO157" s="167"/>
     </row>
     <row r="159" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B159" s="341" t="s">
+      <c r="B159" s="340" t="s">
         <v>2227</v>
       </c>
       <c r="C159" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="D159" s="336" t="s">
+      <c r="D159" s="337" t="s">
         <v>2228</v>
       </c>
-      <c r="E159" s="336"/>
+      <c r="E159" s="337"/>
       <c r="F159" s="56" t="s">
         <v>502</v>
       </c>
       <c r="H159" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="I159" s="336" t="s">
+      <c r="I159" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="J159" s="336"/>
+      <c r="J159" s="337"/>
       <c r="K159" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="O159" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="P159" s="336" t="s">
+      <c r="P159" s="337" t="s">
         <v>2228</v>
       </c>
-      <c r="Q159" s="336"/>
+      <c r="Q159" s="337"/>
       <c r="R159" s="56" t="s">
         <v>502</v>
       </c>
       <c r="T159" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="U159" s="336" t="s">
+      <c r="U159" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="V159" s="336"/>
+      <c r="V159" s="337"/>
       <c r="W159" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="AA159" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="AB159" s="336" t="s">
+      <c r="AB159" s="337" t="s">
         <v>2228</v>
       </c>
-      <c r="AC159" s="336"/>
+      <c r="AC159" s="337"/>
       <c r="AD159" s="56" t="s">
         <v>502</v>
       </c>
       <c r="AF159" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="AG159" s="336" t="s">
+      <c r="AG159" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="AH159" s="336"/>
+      <c r="AH159" s="337"/>
       <c r="AI159" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="AM159" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="AN159" s="336" t="s">
+      <c r="AN159" s="337" t="s">
         <v>2228</v>
       </c>
-      <c r="AO159" s="336"/>
+      <c r="AO159" s="337"/>
       <c r="AP159" s="56" t="s">
         <v>502</v>
       </c>
       <c r="AR159" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="AS159" s="336" t="s">
+      <c r="AS159" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="AT159" s="336"/>
+      <c r="AT159" s="337"/>
       <c r="AU159" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="AY159" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="AZ159" s="336" t="s">
+      <c r="AZ159" s="337" t="s">
         <v>2228</v>
       </c>
-      <c r="BA159" s="336"/>
+      <c r="BA159" s="337"/>
       <c r="BB159" s="56" t="s">
         <v>502</v>
       </c>
       <c r="BD159" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="BE159" s="336" t="s">
+      <c r="BE159" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="BF159" s="336"/>
+      <c r="BF159" s="337"/>
       <c r="BG159" s="56" t="s">
         <v>2231</v>
       </c>
     </row>
     <row r="160" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B160" s="341"/>
+      <c r="B160" s="340"/>
       <c r="E160" s="260"/>
       <c r="G160" s="112" t="s">
         <v>2232</v>
@@ -51324,20 +51606,20 @@
       <c r="BF160" s="260"/>
     </row>
     <row r="161" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B161" s="341"/>
+      <c r="B161" s="340"/>
       <c r="C161" s="112" t="s">
         <v>2233</v>
       </c>
       <c r="D161" s="261">
         <f>C142</f>
-        <v>6425.7999999999993</v>
+        <v>6535.7999999999993</v>
       </c>
       <c r="E161" s="260" t="s">
         <v>2155</v>
       </c>
       <c r="F161" s="262">
         <f>D161+D163-F163</f>
-        <v>-22374.2</v>
+        <v>-22264.2</v>
       </c>
       <c r="G161" s="53">
         <f>IF(F161&gt;0,((F161/12)*0.05)*6,0)</f>
@@ -51362,18 +51644,18 @@
       </c>
       <c r="P161" s="261">
         <f>O142</f>
-        <v>9762.9333333333325</v>
+        <v>9767.9333333333325</v>
       </c>
       <c r="Q161" s="260" t="s">
         <v>2155</v>
       </c>
       <c r="R161" s="262">
         <f>P161+P163-R163</f>
-        <v>10262.933333333332</v>
+        <v>10267.933333333332</v>
       </c>
       <c r="S161" s="53">
         <f>((R161/12)*0.05)*6</f>
-        <v>256.57333333333332</v>
+        <v>256.69833333333332</v>
       </c>
       <c r="T161" s="112" t="s">
         <v>2234</v>
@@ -51394,18 +51676,18 @@
       </c>
       <c r="AB161" s="261">
         <f>AA142</f>
-        <v>34047.45416666667</v>
+        <v>34078.70416666667</v>
       </c>
       <c r="AC161" s="260" t="s">
         <v>2155</v>
       </c>
       <c r="AD161" s="262">
         <f>AB161+AB163-AD163</f>
-        <v>34547.45416666667</v>
+        <v>34578.70416666667</v>
       </c>
       <c r="AE161" s="53">
         <f>((AD161/12)*0.05)*6</f>
-        <v>863.68635416666689</v>
+        <v>864.46760416666666</v>
       </c>
       <c r="AF161" s="112" t="s">
         <v>2234</v>
@@ -51426,18 +51708,18 @@
       </c>
       <c r="AN161" s="261">
         <f>AM142</f>
-        <v>68420.581250000003</v>
+        <v>68490.893750000003</v>
       </c>
       <c r="AO161" s="260" t="s">
         <v>2155</v>
       </c>
       <c r="AP161" s="262">
         <f>AN161+AN163-AP163</f>
-        <v>68920.581250000003</v>
+        <v>68990.893750000003</v>
       </c>
       <c r="AQ161" s="53">
         <f>((AP161/12)*0.05)*6</f>
-        <v>1723.0145312499999</v>
+        <v>1724.7723437499999</v>
       </c>
       <c r="AR161" s="112" t="s">
         <v>2234</v>
@@ -51458,18 +51740,18 @@
       </c>
       <c r="AZ161" s="261">
         <f>AY142</f>
-        <v>122427.5203125</v>
+        <v>122585.7234375</v>
       </c>
       <c r="BA161" s="260" t="s">
         <v>2155</v>
       </c>
       <c r="BB161" s="262">
         <f>AZ161+AZ163-BB163</f>
-        <v>122927.5203125</v>
+        <v>123085.7234375</v>
       </c>
       <c r="BC161" s="53">
         <f>((BB161/12)*0.05)*6</f>
-        <v>3073.1880078124996</v>
+        <v>3077.1430859374996</v>
       </c>
       <c r="BD161" s="112" t="s">
         <v>2234</v>
@@ -51487,7 +51769,7 @@
       </c>
     </row>
     <row r="162" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B162" s="341"/>
+      <c r="B162" s="340"/>
       <c r="E162" s="260"/>
       <c r="F162" s="265"/>
       <c r="J162" s="260"/>
@@ -51510,7 +51792,7 @@
       <c r="BG162" s="265"/>
     </row>
     <row r="163" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B163" s="341"/>
+      <c r="B163" s="340"/>
       <c r="C163" s="112" t="s">
         <v>2236</v>
       </c>
@@ -51530,7 +51812,7 @@
       </c>
       <c r="I163" s="261">
         <f>SUM(C142)</f>
-        <v>6425.7999999999993</v>
+        <v>6535.7999999999993</v>
       </c>
       <c r="J163" s="260"/>
       <c r="K163" s="265"/>
@@ -51553,7 +51835,7 @@
       </c>
       <c r="U163" s="261">
         <f>SUM(O142)</f>
-        <v>9762.9333333333325</v>
+        <v>9767.9333333333325</v>
       </c>
       <c r="V163" s="260"/>
       <c r="W163" s="265"/>
@@ -51576,7 +51858,7 @@
       </c>
       <c r="AG163" s="261">
         <f>SUM(AA142)</f>
-        <v>34047.45416666667</v>
+        <v>34078.70416666667</v>
       </c>
       <c r="AH163" s="260"/>
       <c r="AI163" s="265"/>
@@ -51599,7 +51881,7 @@
       </c>
       <c r="AS163" s="261">
         <f>SUM(AM142)</f>
-        <v>68420.581250000003</v>
+        <v>68490.893750000003</v>
       </c>
       <c r="AT163" s="260"/>
       <c r="AU163" s="265"/>
@@ -51622,7 +51904,7 @@
       </c>
       <c r="BE163" s="261">
         <f>SUM(AY142)</f>
-        <v>122427.5203125</v>
+        <v>122585.7234375</v>
       </c>
       <c r="BF163" s="260"/>
       <c r="BG163" s="265"/>
@@ -51636,7 +51918,7 @@
       <c r="BO163" s="133"/>
     </row>
     <row r="164" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B164" s="341"/>
+      <c r="B164" s="340"/>
       <c r="E164" s="260"/>
       <c r="F164" s="265"/>
       <c r="H164" s="112" t="str">
@@ -51653,7 +51935,7 @@
       </c>
       <c r="K164" s="53">
         <f>IF(K161&lt;I161+I163,I163+I161-K161,"")</f>
-        <v>3185.7999999999993</v>
+        <v>3295.7999999999993</v>
       </c>
       <c r="Q164" s="260"/>
       <c r="R164" s="265"/>
@@ -51671,7 +51953,7 @@
       </c>
       <c r="W164" s="53">
         <f>IF(W161&lt;U161+U163,U163+U161-W161,"")</f>
-        <v>3282.9333333333325</v>
+        <v>3287.9333333333325</v>
       </c>
       <c r="AC164" s="260"/>
       <c r="AD164" s="265"/>
@@ -51681,7 +51963,7 @@
       </c>
       <c r="AG164" s="267">
         <f>IF(AI161&gt;AG161+AG163,AI161-AG163,"")</f>
-        <v>10952.54583333333</v>
+        <v>10921.29583333333</v>
       </c>
       <c r="AH164" s="112" t="str">
         <f>IF(AI164&lt;&gt;"","Perte","")</f>
@@ -51699,7 +51981,7 @@
       </c>
       <c r="AS164" s="267">
         <f>IF(AU161&gt;AS161+AS163,AU161-AS163,"")</f>
-        <v>32829.418749999997</v>
+        <v>32759.106249999997</v>
       </c>
       <c r="AT164" s="112" t="str">
         <f>IF(AU164&lt;&gt;"","Perte","")</f>
@@ -51717,7 +51999,7 @@
       </c>
       <c r="BE164" s="267">
         <f>IF(BG161&gt;BE161+BE163,BG161-BE163,"")</f>
-        <v>105384.9796875</v>
+        <v>105226.7765625</v>
       </c>
       <c r="BF164" s="112" t="str">
         <f>IF(BG164&lt;&gt;"","Perte","")</f>
@@ -51737,56 +52019,56 @@
       <c r="BO164" s="133"/>
     </row>
     <row r="165" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B165" s="341"/>
+      <c r="B165" s="340"/>
       <c r="C165" s="268"/>
       <c r="D165" s="269">
         <f>D163+D161</f>
-        <v>7625.7999999999993</v>
+        <v>7735.7999999999993</v>
       </c>
       <c r="E165" s="270"/>
       <c r="F165" s="271">
         <f>F163+F161</f>
-        <v>7625.7999999999993</v>
+        <v>7735.7999999999993</v>
       </c>
       <c r="H165" s="268"/>
       <c r="I165" s="272">
         <f>SUM(I161:I164)</f>
-        <v>6785.7999999999993</v>
+        <v>6895.7999999999993</v>
       </c>
       <c r="J165" s="270"/>
       <c r="K165" s="273">
         <f>SUM(K161:K164)</f>
-        <v>6785.7999999999993</v>
+        <v>6895.7999999999993</v>
       </c>
       <c r="O165" s="268"/>
       <c r="P165" s="269">
         <f>P163+P161</f>
-        <v>10262.933333333332</v>
+        <v>10267.933333333332</v>
       </c>
       <c r="Q165" s="270"/>
       <c r="R165" s="271">
         <f>R163+R161</f>
-        <v>10262.933333333332</v>
+        <v>10267.933333333332</v>
       </c>
       <c r="T165" s="268"/>
       <c r="U165" s="272">
         <f>SUM(U161:U164)</f>
-        <v>10482.933333333332</v>
+        <v>10487.933333333332</v>
       </c>
       <c r="V165" s="270"/>
       <c r="W165" s="273">
         <f>SUM(W161:W164)</f>
-        <v>10482.933333333332</v>
+        <v>10487.933333333332</v>
       </c>
       <c r="AA165" s="268"/>
       <c r="AB165" s="269">
         <f>AB163+AB161</f>
-        <v>34547.45416666667</v>
+        <v>34578.70416666667</v>
       </c>
       <c r="AC165" s="270"/>
       <c r="AD165" s="271">
         <f>AD163+AD161</f>
-        <v>34547.45416666667</v>
+        <v>34578.70416666667</v>
       </c>
       <c r="AF165" s="268"/>
       <c r="AG165" s="272">
@@ -51801,12 +52083,12 @@
       <c r="AM165" s="268"/>
       <c r="AN165" s="269">
         <f>AN163+AN161</f>
-        <v>68920.581250000003</v>
+        <v>68990.893750000003</v>
       </c>
       <c r="AO165" s="270"/>
       <c r="AP165" s="271">
         <f>AP163+AP161</f>
-        <v>68920.581250000003</v>
+        <v>68990.893750000003</v>
       </c>
       <c r="AR165" s="268"/>
       <c r="AS165" s="272">
@@ -51821,12 +52103,12 @@
       <c r="AY165" s="268"/>
       <c r="AZ165" s="269">
         <f>AZ163+AZ161</f>
-        <v>122927.5203125</v>
+        <v>123085.7234375</v>
       </c>
       <c r="BA165" s="270"/>
       <c r="BB165" s="271">
         <f>BB163+BB161</f>
-        <v>122927.5203125</v>
+        <v>123085.7234375</v>
       </c>
       <c r="BD165" s="268"/>
       <c r="BE165" s="272">
@@ -51868,106 +52150,106 @@
       <c r="BO167" s="133"/>
     </row>
     <row r="168" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B168" s="341" t="s">
+      <c r="B168" s="340" t="s">
         <v>2239</v>
       </c>
       <c r="C168" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="336" t="s">
+      <c r="D168" s="337" t="s">
         <v>2240</v>
       </c>
-      <c r="E168" s="336"/>
+      <c r="E168" s="337"/>
       <c r="F168" s="56" t="s">
         <v>502</v>
       </c>
       <c r="H168" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="I168" s="336" t="s">
+      <c r="I168" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="J168" s="336"/>
+      <c r="J168" s="337"/>
       <c r="K168" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="O168" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="P168" s="336" t="s">
+      <c r="P168" s="337" t="s">
         <v>2240</v>
       </c>
-      <c r="Q168" s="336"/>
+      <c r="Q168" s="337"/>
       <c r="R168" s="56" t="s">
         <v>502</v>
       </c>
       <c r="T168" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="U168" s="336" t="s">
+      <c r="U168" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="V168" s="336"/>
+      <c r="V168" s="337"/>
       <c r="W168" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="AA168" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="AB168" s="336" t="s">
+      <c r="AB168" s="337" t="s">
         <v>2240</v>
       </c>
-      <c r="AC168" s="336"/>
+      <c r="AC168" s="337"/>
       <c r="AD168" s="56" t="s">
         <v>502</v>
       </c>
       <c r="AF168" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="AG168" s="336" t="s">
+      <c r="AG168" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="AH168" s="336"/>
+      <c r="AH168" s="337"/>
       <c r="AI168" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="AM168" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="AN168" s="336" t="s">
+      <c r="AN168" s="337" t="s">
         <v>2240</v>
       </c>
-      <c r="AO168" s="336"/>
+      <c r="AO168" s="337"/>
       <c r="AP168" s="56" t="s">
         <v>502</v>
       </c>
       <c r="AR168" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="AS168" s="336" t="s">
+      <c r="AS168" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="AT168" s="336"/>
+      <c r="AT168" s="337"/>
       <c r="AU168" s="56" t="s">
         <v>2231</v>
       </c>
       <c r="AY168" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="AZ168" s="336" t="s">
+      <c r="AZ168" s="337" t="s">
         <v>2240</v>
       </c>
-      <c r="BA168" s="336"/>
+      <c r="BA168" s="337"/>
       <c r="BB168" s="56" t="s">
         <v>502</v>
       </c>
       <c r="BD168" s="259" t="s">
         <v>2229</v>
       </c>
-      <c r="BE168" s="336" t="s">
+      <c r="BE168" s="337" t="s">
         <v>2230</v>
       </c>
-      <c r="BF168" s="336"/>
+      <c r="BF168" s="337"/>
       <c r="BG168" s="56" t="s">
         <v>2231</v>
       </c>
@@ -51981,7 +52263,7 @@
       <c r="BO168" s="133"/>
     </row>
     <row r="169" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B169" s="341"/>
+      <c r="B169" s="340"/>
       <c r="E169" s="260"/>
       <c r="J169" s="260"/>
       <c r="Q169" s="260"/>
@@ -52002,13 +52284,13 @@
       <c r="BO169" s="133"/>
     </row>
     <row r="170" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B170" s="341"/>
+      <c r="B170" s="340"/>
       <c r="C170" s="112" t="s">
         <v>2136</v>
       </c>
       <c r="D170" s="274">
         <f>F172+F173-D172</f>
-        <v>36890.400000000023</v>
+        <v>35714.775000000023</v>
       </c>
       <c r="E170" s="260" t="s">
         <v>2155</v>
@@ -52153,7 +52435,7 @@
       <c r="BO170" s="133"/>
     </row>
     <row r="171" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B171" s="341"/>
+      <c r="B171" s="340"/>
       <c r="E171" s="260"/>
       <c r="F171" s="265"/>
       <c r="J171" s="260"/>
@@ -52184,7 +52466,7 @@
       <c r="BO171" s="133"/>
     </row>
     <row r="172" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B172" s="341"/>
+      <c r="B172" s="340"/>
       <c r="C172" s="112" t="s">
         <v>2242</v>
       </c>
@@ -52204,7 +52486,7 @@
       </c>
       <c r="I172" s="276">
         <f>SUM(BK142)</f>
-        <v>83049.599999999977</v>
+        <v>84225.224999999977</v>
       </c>
       <c r="J172" s="260"/>
       <c r="K172" s="265"/>
@@ -52310,11 +52592,11 @@
       <c r="BO172" s="133"/>
     </row>
     <row r="173" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B173" s="341"/>
+      <c r="B173" s="340"/>
       <c r="D173" s="277"/>
       <c r="F173" s="275">
         <f>IF(I173&lt;&gt;0,I173,IF(K173&lt;&gt;0,-K173,0))</f>
-        <v>9290.4000000000233</v>
+        <v>8114.7750000000233</v>
       </c>
       <c r="H173" s="112" t="str">
         <f>IF(I173&lt;&gt;0,"Bénéfice","")</f>
@@ -52322,7 +52604,7 @@
       </c>
       <c r="I173" s="278">
         <f>IF(K170&gt;I170+I172,K170-I172-I170,0)</f>
-        <v>9290.4000000000233</v>
+        <v>8114.7750000000233</v>
       </c>
       <c r="J173" s="112" t="str">
         <f>IF(K173&lt;&gt;0,"Perte","")</f>
@@ -52426,16 +52708,16 @@
       <c r="BO173" s="133"/>
     </row>
     <row r="174" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B174" s="341"/>
+      <c r="B174" s="340"/>
       <c r="C174" s="268"/>
       <c r="D174" s="273">
         <f>SUM(D170:D173)</f>
-        <v>39290.400000000023</v>
+        <v>38114.775000000023</v>
       </c>
       <c r="E174" s="270"/>
       <c r="F174" s="273">
         <f>SUM(F170:F173)</f>
-        <v>39290.400000000023</v>
+        <v>38114.775000000023</v>
       </c>
       <c r="H174" s="268"/>
       <c r="I174" s="272">
@@ -52575,11 +52857,11 @@
       </c>
       <c r="C178" s="281">
         <f>BK142</f>
-        <v>83049.599999999977</v>
+        <v>84225.224999999977</v>
       </c>
       <c r="D178" s="281">
         <f>BL142</f>
-        <v>128190.19999999998</v>
+        <v>128320.19999999998</v>
       </c>
       <c r="O178" s="281">
         <f>BW142</f>
@@ -52674,11 +52956,11 @@
       </c>
       <c r="C181" s="281">
         <f>C178/C179/C180</f>
-        <v>40.710588235294104</v>
+        <v>41.286874999999988</v>
       </c>
       <c r="D181" s="281">
         <f>D178/D179/D180</f>
-        <v>62.838333333333324</v>
+        <v>62.902058823529401</v>
       </c>
       <c r="O181" s="281">
         <f>O178/O179/O180</f>
@@ -52708,15 +52990,15 @@
       </c>
       <c r="C182" s="281">
         <f>C178/C179</f>
-        <v>346.03999999999991</v>
+        <v>350.93843749999991</v>
       </c>
       <c r="D182" s="281">
         <f>D178/D179</f>
-        <v>534.12583333333328</v>
+        <v>534.6674999999999</v>
       </c>
       <c r="F182" s="112">
         <f>F184/4</f>
-        <v>432.5499999999999</v>
+        <v>438.6730468749999</v>
       </c>
       <c r="G182" s="112" t="s">
         <v>2251</v>
@@ -52753,11 +53035,11 @@
       </c>
       <c r="C183" s="281">
         <f>C178/C179*5</f>
-        <v>1730.1999999999996</v>
+        <v>1754.6921874999996</v>
       </c>
       <c r="D183" s="281">
         <f>D178/D179*5</f>
-        <v>2670.6291666666666</v>
+        <v>2673.3374999999996</v>
       </c>
       <c r="O183" s="281">
         <f>O178/O179*5</f>
@@ -52787,18 +53069,18 @@
       </c>
       <c r="C184" s="281">
         <f>C178/12</f>
-        <v>6920.7999999999984</v>
+        <v>7018.7687499999984</v>
       </c>
       <c r="D184" s="281">
         <f>D178/12</f>
-        <v>10682.516666666665</v>
+        <v>10693.349999999999</v>
       </c>
       <c r="E184" s="112">
         <v>4</v>
       </c>
       <c r="F184" s="112">
         <f>C184/E184</f>
-        <v>1730.1999999999996</v>
+        <v>1754.6921874999996</v>
       </c>
       <c r="O184" s="281">
         <f>O178/12</f>
@@ -52846,7 +53128,7 @@
       </c>
       <c r="F187" s="112">
         <f>F186*F184</f>
-        <v>605.56999999999982</v>
+        <v>614.14226562499982</v>
       </c>
     </row>
     <row r="189" spans="2:67" x14ac:dyDescent="0.25">
@@ -52863,11 +53145,23 @@
       </c>
       <c r="F190" s="112">
         <f>F184*F189</f>
-        <v>7785.8999999999978</v>
+        <v>7896.1148437499978</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AS159:AT159"/>
+    <mergeCell ref="AZ159:BA159"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="P159:Q159"/>
+    <mergeCell ref="U159:V159"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="BE159:BF159"/>
     <mergeCell ref="B168:B174"/>
@@ -52884,18 +53178,6 @@
     <mergeCell ref="AB159:AC159"/>
     <mergeCell ref="AG159:AH159"/>
     <mergeCell ref="AN159:AO159"/>
-    <mergeCell ref="AS159:AT159"/>
-    <mergeCell ref="AZ159:BA159"/>
-    <mergeCell ref="B159:B165"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="P159:Q159"/>
-    <mergeCell ref="U159:V159"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AY4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="C152:AL152 B154:AL157 C153:BJ153 C150:AL150">
     <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
@@ -52992,35 +53274,35 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="343">
+      <c r="B3" s="344">
         <f>Hypotheses!$B$4</f>
         <v>2019</v>
       </c>
-      <c r="C3" s="343"/>
-      <c r="F3" s="343">
+      <c r="C3" s="344"/>
+      <c r="F3" s="344">
         <f>B3+1</f>
         <v>2020</v>
       </c>
-      <c r="G3" s="343"/>
-      <c r="H3" s="343"/>
-      <c r="J3" s="343">
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="J3" s="344">
         <f>F3+1</f>
         <v>2021</v>
       </c>
-      <c r="K3" s="343"/>
-      <c r="L3" s="343"/>
-      <c r="N3" s="343">
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="N3" s="344">
         <f>J3+1</f>
         <v>2022</v>
       </c>
-      <c r="O3" s="343"/>
-      <c r="P3" s="343"/>
-      <c r="R3" s="343">
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="R3" s="344">
         <f>N3+1</f>
         <v>2023</v>
       </c>
-      <c r="S3" s="343"/>
-      <c r="T3" s="343"/>
+      <c r="S3" s="344"/>
+      <c r="T3" s="344"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -53618,64 +53900,64 @@
       </c>
       <c r="B14" s="127">
         <f>'Resultats previsionnels'!BK119</f>
-        <v>6000</v>
+        <v>7175.625</v>
       </c>
       <c r="C14" s="287">
         <f t="shared" si="0"/>
-        <v>5.8479532163742687E-2</v>
+        <v>6.9937865497076021E-2</v>
       </c>
       <c r="D14" s="285"/>
       <c r="E14" s="285"/>
       <c r="F14" s="127">
         <f>+'Resultats previsionnels'!BL119</f>
-        <v>11545</v>
+        <v>11675</v>
       </c>
       <c r="G14" s="287">
         <f t="shared" si="1"/>
-        <v>6.167200854700855E-2</v>
+        <v>6.2366452991452992E-2</v>
       </c>
       <c r="H14" s="288">
         <f t="shared" si="2"/>
-        <v>0.92416666666666658</v>
+        <v>0.62703597247626508</v>
       </c>
       <c r="I14" s="285"/>
       <c r="J14" s="127">
         <f>+'Resultats previsionnels'!BM119</f>
-        <v>17046.875</v>
+        <v>17515.625</v>
       </c>
       <c r="K14" s="287">
         <f t="shared" si="3"/>
-        <v>2.525462962962963E-2</v>
+        <v>2.5949074074074076E-2</v>
       </c>
       <c r="L14" s="288">
         <f t="shared" si="4"/>
-        <v>0.47655911650064953</v>
+        <v>0.50026766595289085</v>
       </c>
       <c r="M14" s="285"/>
       <c r="N14" s="127">
         <f>+'Resultats previsionnels'!BN119</f>
-        <v>23855.46875</v>
+        <v>24910.15625</v>
       </c>
       <c r="O14" s="287">
         <f t="shared" si="5"/>
-        <v>1.5707304526748973E-2</v>
+        <v>1.6401748971193415E-2</v>
       </c>
       <c r="P14" s="288">
         <f t="shared" si="6"/>
-        <v>0.39940421631530709</v>
+        <v>0.42216770740410348</v>
       </c>
       <c r="Q14" s="285"/>
       <c r="R14" s="127">
         <f>+'Resultats previsionnels'!BO119</f>
-        <v>38374.8046875</v>
+        <v>40747.8515625</v>
       </c>
       <c r="S14" s="287">
         <f t="shared" si="7"/>
-        <v>1.1229938271604938E-2</v>
+        <v>1.1924382716049382E-2</v>
       </c>
       <c r="T14" s="288">
         <f t="shared" si="8"/>
-        <v>0.60863762895038476</v>
+        <v>0.63579269248863102</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -54669,31 +54951,31 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="343">
+      <c r="C3" s="344">
         <f>Hypotheses!$B$4</f>
         <v>2019</v>
       </c>
-      <c r="D3" s="343"/>
-      <c r="G3" s="343">
+      <c r="D3" s="344"/>
+      <c r="G3" s="344">
         <f>C3+1</f>
         <v>2020</v>
       </c>
-      <c r="H3" s="343"/>
-      <c r="K3" s="343">
+      <c r="H3" s="344"/>
+      <c r="K3" s="344">
         <f>G3+1</f>
         <v>2021</v>
       </c>
-      <c r="L3" s="343"/>
-      <c r="O3" s="343">
+      <c r="L3" s="344"/>
+      <c r="O3" s="344">
         <f>K3+1</f>
         <v>2022</v>
       </c>
-      <c r="P3" s="343"/>
-      <c r="S3" s="343">
+      <c r="P3" s="344"/>
+      <c r="S3" s="344">
         <f>O3+1</f>
         <v>2023</v>
       </c>
-      <c r="T3" s="343"/>
+      <c r="T3" s="344"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="296" t="s">
